--- a/download/solution_data.xlsx
+++ b/download/solution_data.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -575,54 +575,54 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I2" t="n">
-        <v>43325604.738</v>
+        <v>340983.8747999999</v>
       </c>
       <c r="J2" t="n">
         <v>41001442</v>
       </c>
       <c r="K2" t="n">
-        <v>41001442</v>
+        <v>340983.8747999999</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2324162.737999998</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8431.653030000001</v>
+        <v>70.02846495999998</v>
       </c>
       <c r="O2" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P2" t="n">
-        <v>8154.856789040001</v>
+        <v>66.36508495999999</v>
       </c>
       <c r="Q2" t="n">
         <v>9</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'l1': 231.35463}</t>
+          <t>{'l2': 1.82169}</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>231.36463</v>
+        <v>1.83169</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>{'FuturaSun Silk Pro All Black 360W': 127}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 1}</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>25273</v>
+        <v>199</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>63182.5</v>
+        <v>497.5</v>
       </c>
     </row>
     <row r="3">
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -661,54 +661,54 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I3" t="n">
-        <v>44690190.714</v>
+        <v>341146.4939999999</v>
       </c>
       <c r="J3" t="n">
         <v>41001442</v>
       </c>
       <c r="K3" t="n">
-        <v>41001442</v>
+        <v>341146.4939999999</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3688748.714000002</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8438.93979</v>
+        <v>70.06098879999999</v>
       </c>
       <c r="O3" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P3" t="n">
-        <v>8256.736907120001</v>
+        <v>66.3976088</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'l1': 238.64139}</t>
+          <t>{'l1': 1.82169}</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>238.65139</v>
+        <v>1.83169</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>{'FuturaSun Silk Pro All Black 360W': 131}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 1}</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>26069</v>
+        <v>199</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>65172.5</v>
+        <v>497.5</v>
       </c>
     </row>
     <row r="4">
@@ -728,7 +728,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -747,54 +747,54 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I4" t="n">
-        <v>46737069.678</v>
+        <v>681967.7495999999</v>
       </c>
       <c r="J4" t="n">
         <v>41001442</v>
       </c>
       <c r="K4" t="n">
-        <v>41001442</v>
+        <v>681967.7495999999</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5735627.677999996</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8449.869930000001</v>
+        <v>140.04692992</v>
       </c>
       <c r="O4" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P4" t="n">
-        <v>8409.557084240001</v>
+        <v>132.74016992</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'l1': 249.57153}</t>
+          <t>{'l2': 3.64338}</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>249.58153</v>
+        <v>3.65338</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>{'FuturaSun Silk Pro All Black 360W': 137}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 2}</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>27263</v>
+        <v>398</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>68157.5</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -833,54 +833,54 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I5" t="n">
-        <v>47419362.66599999</v>
+        <v>682292.9879999999</v>
       </c>
       <c r="J5" t="n">
         <v>41001442</v>
       </c>
       <c r="K5" t="n">
-        <v>41001442</v>
+        <v>682292.9879999999</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>6417920.665999994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>8453.513310000002</v>
+        <v>140.1119776</v>
       </c>
       <c r="O5" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P5" t="n">
-        <v>8460.497143279999</v>
+        <v>132.8052176</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'l1': 253.21491}</t>
+          <t>{'l1': 3.64338}</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>253.22491</v>
+        <v>3.65338</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>{'FuturaSun Silk Pro All Black 360W': 139}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 2}</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>27661</v>
+        <v>398</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>69152.5</v>
+        <v>995</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +900,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -919,54 +919,54 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I6" t="n">
-        <v>54157005.9225</v>
+        <v>1022951.6244</v>
       </c>
       <c r="J6" t="n">
         <v>41001442</v>
       </c>
       <c r="K6" t="n">
-        <v>41001442</v>
+        <v>1022951.6244</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>13155563.9225</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>8454.058116000002</v>
+        <v>210.06539488</v>
       </c>
       <c r="O6" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P6" t="n">
-        <v>8998.963797800001</v>
+        <v>199.11525488</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'l1': 253.759716}</t>
+          <t>{'l2': 5.46507}</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>253.769716</v>
+        <v>5.47507</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>{'Trina VertexS-NEG9R.28': 127}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 3}</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>13970</v>
+        <v>597</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>34925</v>
+        <v>1492.5</v>
       </c>
     </row>
     <row r="7">
@@ -986,7 +986,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1005,54 +1005,54 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I7" t="n">
-        <v>50897161.6465</v>
+        <v>1023439.482</v>
       </c>
       <c r="J7" t="n">
         <v>41001442</v>
       </c>
       <c r="K7" t="n">
-        <v>41001442</v>
+        <v>1023439.482</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>9895719.646499999</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>8457.013860000001</v>
+        <v>210.1629664</v>
       </c>
       <c r="O7" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P7" t="n">
-        <v>8735.220511720001</v>
+        <v>199.2128264</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'l1': 256.71546}</t>
+          <t>{'l1': 5.46507}</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>256.72546</v>
+        <v>5.47507</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>{'Viessmann PV-Solarmodul Vitovolt 300 M410 WK': 131}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 3}</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>13100</v>
+        <v>597</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>32750</v>
+        <v>1492.5</v>
       </c>
     </row>
     <row r="8">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1091,54 +1091,54 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I8" t="n">
-        <v>55862738.3925</v>
+        <v>1363935.4992</v>
       </c>
       <c r="J8" t="n">
         <v>41001442</v>
       </c>
       <c r="K8" t="n">
-        <v>41001442</v>
+        <v>1363935.4992</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14861296.3925</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>8462.050548000001</v>
+        <v>280.0838598399999</v>
       </c>
       <c r="O8" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P8" t="n">
-        <v>9127.429963400002</v>
+        <v>265.4903398399999</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'l1': 261.752148}</t>
+          <t>{'l2': 7.28676}</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>261.762148</v>
+        <v>7.29676</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>{'Trina VertexS-NEG9R.28': 131}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 4}</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>14410</v>
+        <v>796</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>36025</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="9">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1177,54 +1177,54 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I9" t="n">
-        <v>53228329.3555</v>
+        <v>1364585.976</v>
       </c>
       <c r="J9" t="n">
         <v>41001442</v>
       </c>
       <c r="K9" t="n">
-        <v>41001442</v>
+        <v>1364585.976</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12226887.3555</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>8468.771820000002</v>
+        <v>280.2139552</v>
       </c>
       <c r="O9" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P9" t="n">
-        <v>8909.955968440001</v>
+        <v>265.6204352</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'l1': 268.47342}</t>
+          <t>{'l1': 7.28676}</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>268.48342</v>
+        <v>7.29676</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>{'Viessmann PV-Solarmodul Vitovolt 300 M410 WK': 137}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 4}</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>13700</v>
+        <v>796</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>34250</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="10">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1263,54 +1263,54 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I10" t="n">
-        <v>50830827.606</v>
+        <v>1704919.374</v>
       </c>
       <c r="J10" t="n">
         <v>41001442</v>
       </c>
       <c r="K10" t="n">
-        <v>41001442</v>
+        <v>1704919.374</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9829385.605999999</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>8471.730210000002</v>
+        <v>350.1023248</v>
       </c>
       <c r="O10" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P10" t="n">
-        <v>8715.197438480001</v>
+        <v>331.8654248</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'l1': 271.43181}</t>
+          <t>{'l2': 9.10845}</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>271.44181</v>
+        <v>9.118449999999999</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>{'FuturaSun Silk Pro All Black 360W': 149}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 5}</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>29651</v>
+        <v>995</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>74127.5</v>
+        <v>2487.5</v>
       </c>
     </row>
     <row r="11">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>d1339a7195ce43e6b0e5cd6bdc529057</t>
+          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1349,54 +1349,54 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>92fd0f8083774b2db689ce6c0774f680</t>
+          <t>2d364bf623434103976062c22185d61d</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1699747431.115959</v>
+        <v>1699885063.98137</v>
       </c>
       <c r="I11" t="n">
-        <v>54005385.25849999</v>
+        <v>1705732.47</v>
       </c>
       <c r="J11" t="n">
         <v>41001442</v>
       </c>
       <c r="K11" t="n">
-        <v>41001442</v>
+        <v>1705732.47</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>13003943.25849999</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>8472.691140000001</v>
+        <v>350.264944</v>
       </c>
       <c r="O11" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P11" t="n">
-        <v>8968.201120680002</v>
+        <v>332.028044</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'l1': 272.39274}</t>
+          <t>{'l1': 9.10845}</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>272.40274</v>
+        <v>9.118449999999999</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>{'Viessmann PV-Solarmodul Vitovolt 300 M410 WK': 139}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 5}</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>13900</v>
+        <v>995</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34750</v>
+        <v>2487.5</v>
       </c>
     </row>
     <row r="12">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1435,54 +1435,54 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I12" t="n">
-        <v>41612573.0993</v>
+        <v>287699.7564</v>
       </c>
       <c r="J12" t="n">
         <v>41001442</v>
       </c>
       <c r="K12" t="n">
-        <v>41001442</v>
+        <v>287699.7564</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>611131.0992999971</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>8449.175220000001</v>
+        <v>59.37164128000001</v>
       </c>
       <c r="O12" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P12" t="n">
-        <v>8000.292067944001</v>
+        <v>55.70826128</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'l3': 248.87682}</t>
+          <t>{'l3': 1.82169}</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>248.88682</v>
+        <v>1.83169</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>{'Viessmann PV-Solarmodul Vitovolt 300 M410 WK': 127}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 1}</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>12700</v>
+        <v>199</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>31750</v>
+        <v>497.5</v>
       </c>
     </row>
     <row r="13">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1521,54 +1521,54 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I13" t="n">
-        <v>45672336.3285</v>
+        <v>320726.5164</v>
       </c>
       <c r="J13" t="n">
         <v>41001442</v>
       </c>
       <c r="K13" t="n">
-        <v>41001442</v>
+        <v>320726.5164</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4670894.328500003</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>8454.058116000002</v>
+        <v>65.97699328</v>
       </c>
       <c r="O13" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P13" t="n">
-        <v>8320.190230280001</v>
+        <v>62.31361328000001</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'l3': 253.759716}</t>
+          <t>{'l4': 1.82169}</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>253.769716</v>
+        <v>1.83169</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>{'Trina VertexS-NEG9R.28': 127}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 1}</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>13970</v>
+        <v>199</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34925</v>
+        <v>497.5</v>
       </c>
     </row>
     <row r="14">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1607,54 +1607,54 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I14" t="n">
-        <v>42923205.3229</v>
+        <v>327658.0559</v>
       </c>
       <c r="J14" t="n">
         <v>41001442</v>
       </c>
       <c r="K14" t="n">
-        <v>41001442</v>
+        <v>327658.0559</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1921763.322899997</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>8457.013860000001</v>
+        <v>67.50127118</v>
       </c>
       <c r="O14" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P14" t="n">
-        <v>8097.304005832002</v>
+        <v>63.56195118</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'l3': 256.71546}</t>
+          <t>{'l3': 1.95966}</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>256.72546</v>
+        <v>1.96966</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>{'Viessmann PV-Solarmodul Vitovolt 300 M410 WK': 131}</t>
+          <t>{'Viessmann PV-Solarmodul Vitovolt 300 M410 WK': 1}</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>13100</v>
+        <v>100</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>32750</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1693,54 +1693,54 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I15" t="n">
-        <v>47110835.1105</v>
+        <v>359624.6955</v>
       </c>
       <c r="J15" t="n">
         <v>41001442</v>
       </c>
       <c r="K15" t="n">
-        <v>41001442</v>
+        <v>359624.6955</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>6109393.1105</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>8462.050548000001</v>
+        <v>73.93304710000001</v>
       </c>
       <c r="O15" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P15" t="n">
-        <v>8427.277700840001</v>
+        <v>69.9168311</v>
       </c>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'l3': 261.752148}</t>
+          <t>{'l3': 1.998108}</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>261.762148</v>
+        <v>2.008108</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>{'Trina VertexS-NEG9R.28': 131}</t>
+          <t>{'Trina VertexS-NEG9R.28': 1}</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>14410</v>
+        <v>110</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>36025</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1779,54 +1779,54 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I16" t="n">
-        <v>40637590.59150001</v>
+        <v>575399.5128</v>
       </c>
       <c r="J16" t="n">
         <v>41001442</v>
       </c>
       <c r="K16" t="n">
-        <v>40637590.59150001</v>
+        <v>575399.5128</v>
       </c>
       <c r="L16" t="n">
-        <v>363851.4084999934</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>8462.469744849999</v>
+        <v>118.73328256</v>
       </c>
       <c r="O16" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P16" t="n">
-        <v>7901.721914300001</v>
+        <v>111.42652256</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'l3': 225.786204}</t>
+          <t>{'l3': 3.64338}</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>225.796204</v>
+        <v>3.65338</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>{'Trina VertexS-NEG9R.28': 113}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 2}</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>12430</v>
+        <v>398</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>31075</v>
+        <v>995</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1865,54 +1865,54 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I17" t="n">
-        <v>44889153.6583</v>
+        <v>641453.0328</v>
       </c>
       <c r="J17" t="n">
         <v>41001442</v>
       </c>
       <c r="K17" t="n">
-        <v>41001442</v>
+        <v>641453.0328</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3887711.658299997</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>8468.771820000002</v>
+        <v>131.94398656</v>
       </c>
       <c r="O17" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P17" t="n">
-        <v>8242.821912664</v>
+        <v>124.63722656</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'l3': 268.47342}</t>
+          <t>{'l4': 3.64338}</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>268.48342</v>
+        <v>3.65338</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>{'Viessmann PV-Solarmodul Vitovolt 300 M410 WK': 137}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 2}</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>13700</v>
+        <v>398</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34250</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1951,54 +1951,54 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I18" t="n">
-        <v>42867263.7036</v>
+        <v>655316.1118</v>
       </c>
       <c r="J18" t="n">
         <v>41001442</v>
       </c>
       <c r="K18" t="n">
-        <v>41001442</v>
+        <v>655316.1118</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1865821.703600004</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>8471.730210000002</v>
+        <v>134.99254236</v>
       </c>
       <c r="O18" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P18" t="n">
-        <v>8078.112326288001</v>
+        <v>127.13390236</v>
       </c>
       <c r="Q18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'l3': 271.43181}</t>
+          <t>{'l3': 3.91932}</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>271.44181</v>
+        <v>3.92932</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>{'FuturaSun Silk Pro All Black 360W': 149}</t>
+          <t>{'Viessmann PV-Solarmodul Vitovolt 300 M410 WK': 2}</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>29651</v>
+        <v>200</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>74127.5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2037,54 +2037,54 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I19" t="n">
-        <v>45544469.7701</v>
+        <v>719249.3909999999</v>
       </c>
       <c r="J19" t="n">
         <v>41001442</v>
       </c>
       <c r="K19" t="n">
-        <v>41001442</v>
+        <v>719249.3909999999</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4543027.770099998</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>8472.691140000001</v>
+        <v>147.8560942</v>
       </c>
       <c r="O19" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P19" t="n">
-        <v>8291.327881608002</v>
+        <v>139.8436622</v>
       </c>
       <c r="Q19" t="n">
         <v>5</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'l3': 272.39274}</t>
+          <t>{'l3': 3.996216}</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>272.40274</v>
+        <v>4.006216</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>{'Viessmann PV-Solarmodul Vitovolt 300 M410 WK': 139}</t>
+          <t>{'Trina VertexS-NEG9R.28': 2}</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>13900</v>
+        <v>220</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34750</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2123,54 +2123,54 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I20" t="n">
-        <v>43154963.45999999</v>
+        <v>863099.2692</v>
       </c>
       <c r="J20" t="n">
         <v>41001442</v>
       </c>
       <c r="K20" t="n">
-        <v>41001442</v>
+        <v>863099.2692</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2153521.459999993</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>8473.5519</v>
+        <v>178.09492384</v>
       </c>
       <c r="O20" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P20" t="n">
-        <v>8099.306616800001</v>
+        <v>167.14478384</v>
       </c>
       <c r="Q20" t="n">
         <v>11</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'l3': 273.2535}</t>
+          <t>{'l3': 5.46507}</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>273.2635</v>
+        <v>5.47507</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>{'FuturaSun Silk Pro All Black 360W': 150}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 3}</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>29850</v>
+        <v>597</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>74625</v>
+        <v>1492.5</v>
       </c>
     </row>
     <row r="21">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ea39be149f9c45aca64a2b959d143fc7</t>
+          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2209,54 +2209,54 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ebbc1f161d87489b8f6369439fa579de</t>
+          <t>78b848ea38bd40258ac18f351f7c179b</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1699747431.156957</v>
+        <v>1699885064.898404</v>
       </c>
       <c r="I21" t="n">
-        <v>49268583.2835</v>
+        <v>962179.5492</v>
       </c>
       <c r="J21" t="n">
         <v>41001442</v>
       </c>
       <c r="K21" t="n">
-        <v>41001442</v>
+        <v>962179.5492</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>8267141.283500001</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>8474.039196000002</v>
+        <v>197.91097984</v>
       </c>
       <c r="O21" t="n">
         <v>12300.4326</v>
       </c>
       <c r="P21" t="n">
-        <v>8587.908906680001</v>
+        <v>186.96083984</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'l3': 273.740796}</t>
+          <t>{'l4': 5.46507}</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>273.750796</v>
+        <v>5.47507</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>{'Trina VertexS-NEG9R.28': 137}</t>
+          <t>{'FuturaSun Silk Pro All Black 360W': 3}</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>15070</v>
+        <v>597</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>37675</v>
+        <v>1492.5</v>
       </c>
     </row>
     <row r="22">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2295,11 +2295,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I22" t="n">
         <v>25507825.94879999</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -2381,11 +2381,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I23" t="n">
         <v>25439231.2068</v>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2467,11 +2467,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I24" t="n">
         <v>25409356.5312</v>
@@ -2483,7 +2483,7 @@
         <v>25409356.5312</v>
       </c>
       <c r="L24" t="n">
-        <v>580691122.5587453</v>
+        <v>580691122.5587454</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -2553,11 +2553,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I25" t="n">
         <v>24976796.346</v>
@@ -2569,7 +2569,7 @@
         <v>24976796.346</v>
       </c>
       <c r="L25" t="n">
-        <v>581123682.7439454</v>
+        <v>581123682.7439455</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -2639,11 +2639,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I26" t="n">
         <v>24122162.3112</v>
@@ -2655,13 +2655,13 @@
         <v>24122162.3112</v>
       </c>
       <c r="L26" t="n">
-        <v>581978316.7787453</v>
+        <v>581978316.7787454</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>179560.0393158635</v>
+        <v>179560.0393158636</v>
       </c>
       <c r="O26" t="n">
         <v>181830.1437269836</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -2725,11 +2725,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I27" t="n">
         <v>23872708.9008</v>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -2811,11 +2811,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I28" t="n">
         <v>23790534.7608</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -2897,11 +2897,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I29" t="n">
         <v>23774239.4832</v>
@@ -2913,7 +2913,7 @@
         <v>23774239.4832</v>
       </c>
       <c r="L29" t="n">
-        <v>582326239.6067454</v>
+        <v>582326239.6067452</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2983,11 +2983,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I30" t="n">
         <v>23538297.564</v>
@@ -2999,7 +2999,7 @@
         <v>23538297.564</v>
       </c>
       <c r="L30" t="n">
-        <v>582562181.5259453</v>
+        <v>582562181.5259454</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1007faf13fd74703bb06b6c725ec8c18</t>
+          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -3069,11 +3069,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>97f90237637849f39018cceee7cbfb03</t>
+          <t>f3535f4c3afe4e20af878e1abee235d3</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1699747431.199383</v>
+        <v>1699885065.258859</v>
       </c>
       <c r="I31" t="n">
         <v>23218662.0816</v>

--- a/download/solution_data.xlsx
+++ b/download/solution_data.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -575,11 +575,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I2" t="n">
         <v>340983.8747999999</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -661,11 +661,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I3" t="n">
         <v>341146.4939999999</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -747,11 +747,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I4" t="n">
         <v>681967.7495999999</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -833,11 +833,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I5" t="n">
         <v>682292.9879999999</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -919,11 +919,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I6" t="n">
         <v>1022951.6244</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1005,11 +1005,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I7" t="n">
         <v>1023439.482</v>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1091,11 +1091,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I8" t="n">
         <v>1363935.4992</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I9" t="n">
         <v>1364585.976</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1263,11 +1263,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I10" t="n">
         <v>1704919.374</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>902e9029b2fd430dbefc8d1a4e7e410c</t>
+          <t>aba059fc3cba4cc9ac69cba1ce95e578</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1349,11 +1349,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2d364bf623434103976062c22185d61d</t>
+          <t>f88ddf9b84394b1ea41e9917f56f70c0</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1699885063.98137</v>
+        <v>1699885398.979374</v>
       </c>
       <c r="I11" t="n">
         <v>1705732.47</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1435,11 +1435,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I12" t="n">
         <v>287699.7564</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1521,11 +1521,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I13" t="n">
         <v>320726.5164</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1607,11 +1607,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I14" t="n">
         <v>327658.0559</v>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1693,11 +1693,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I15" t="n">
         <v>359624.6955</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1779,11 +1779,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I16" t="n">
         <v>575399.5128</v>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I17" t="n">
         <v>641453.0328</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1951,11 +1951,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I18" t="n">
         <v>655316.1118</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2037,11 +2037,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I19" t="n">
         <v>719249.3909999999</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I20" t="n">
         <v>863099.2692</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a72a9bd638814c5190ec6bc9c58a8537</t>
+          <t>c725d0da7278481db053ff9c72236183</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2209,11 +2209,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>78b848ea38bd40258ac18f351f7c179b</t>
+          <t>44b3d00f97d94a8fb9fba4186ac2b873</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1699885064.898404</v>
+        <v>1699885399.843992</v>
       </c>
       <c r="I21" t="n">
         <v>962179.5492</v>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2295,11 +2295,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I22" t="n">
         <v>25507825.94879999</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -2381,11 +2381,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I23" t="n">
         <v>25439231.2068</v>
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2467,11 +2467,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I24" t="n">
         <v>25409356.5312</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -2553,11 +2553,11 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I25" t="n">
         <v>24976796.346</v>
@@ -2569,7 +2569,7 @@
         <v>24976796.346</v>
       </c>
       <c r="L25" t="n">
-        <v>581123682.7439455</v>
+        <v>581123682.7439454</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -2639,11 +2639,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I26" t="n">
         <v>24122162.3112</v>
@@ -2655,13 +2655,13 @@
         <v>24122162.3112</v>
       </c>
       <c r="L26" t="n">
-        <v>581978316.7787454</v>
+        <v>581978316.7787453</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>179560.0393158636</v>
+        <v>179560.0393158635</v>
       </c>
       <c r="O26" t="n">
         <v>181830.1437269836</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -2725,11 +2725,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I27" t="n">
         <v>23872708.9008</v>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -2811,11 +2811,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I28" t="n">
         <v>23790534.7608</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -2897,11 +2897,11 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I29" t="n">
         <v>23774239.4832</v>
@@ -2913,7 +2913,7 @@
         <v>23774239.4832</v>
       </c>
       <c r="L29" t="n">
-        <v>582326239.6067452</v>
+        <v>582326239.6067454</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2983,11 +2983,11 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I30" t="n">
         <v>23538297.564</v>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>83d3cca38c714b2fab0d30951de2c8e8</t>
+          <t>30195a3b04674174b34714f6173aa58c</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -3069,11 +3069,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>f3535f4c3afe4e20af878e1abee235d3</t>
+          <t>2728a85eac554c16a138d7a0f014b700</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1699885065.258859</v>
+        <v>1699885400.175842</v>
       </c>
       <c r="I31" t="n">
         <v>23218662.0816</v>

--- a/download/solution_data.xlsx
+++ b/download/solution_data.xlsx
@@ -85,13 +85,13 @@
     <t>total_installation_costs</t>
   </si>
   <si>
-    <t>793405b529de488682f6b024af8d33b1</t>
-  </si>
-  <si>
-    <t>e7b4c36934004af6b90cd10b9c8d080d</t>
-  </si>
-  <si>
-    <t>7c84e3ae379041a5a3429f1b03323df5</t>
+    <t>732cac6cab85491986f2fd4414a0d7a1</t>
+  </si>
+  <si>
+    <t>000d065a88b04d768640f701dd33ea72</t>
+  </si>
+  <si>
+    <t>d4783dfd10fc46c8883018d8fc7510ca</t>
   </si>
   <si>
     <t>b1</t>
@@ -106,13 +106,13 @@
     <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0.0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 150, 'min_equipment_count': 10, 'shown_solutions_limit': 10, 'battery_capacity_uplimit': 2.0, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
   </si>
   <si>
-    <t>1588abf2baa34b1c941d4259130fdac6</t>
-  </si>
-  <si>
-    <t>a6dccfc17d3c4273a77da83ae57163f0</t>
-  </si>
-  <si>
-    <t>160974014cdb48a597d2f77e0f9bc062</t>
+    <t>9e42f029f7884dca99de5bc7628f1510</t>
+  </si>
+  <si>
+    <t>2b8af4382c534bbb833e87955efb0c2c</t>
+  </si>
+  <si>
+    <t>8275b1fae47a412e9f37e1153f3b546f</t>
   </si>
   <si>
     <t>{'l1': 299.7162}</t>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
       <c r="H2">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I2">
         <v>63964967.62500001</v>
@@ -785,7 +785,7 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I3">
         <v>63538534.5075</v>
@@ -856,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I4">
         <v>59274203.3325</v>
@@ -927,7 +927,7 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I5">
         <v>58421337.0975</v>
@@ -998,7 +998,7 @@
         <v>30</v>
       </c>
       <c r="H6">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I6">
         <v>58279192.725</v>
@@ -1069,7 +1069,7 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I7">
         <v>57890664.7735</v>
@@ -1140,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="H8">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I8">
         <v>55862738.3925</v>
@@ -1211,7 +1211,7 @@
         <v>30</v>
       </c>
       <c r="H9">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I9">
         <v>54157005.9225</v>
@@ -1282,7 +1282,7 @@
         <v>30</v>
       </c>
       <c r="H10">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I10">
         <v>54005385.25849999</v>
@@ -1353,7 +1353,7 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>1703706124.97333</v>
+        <v>1703804159.024963</v>
       </c>
       <c r="I11">
         <v>53228329.3555</v>
@@ -1424,7 +1424,7 @@
         <v>31</v>
       </c>
       <c r="H12">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I12">
         <v>53943704.325</v>
@@ -1495,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I13">
         <v>53584079.62950001</v>
@@ -1566,7 +1566,7 @@
         <v>31</v>
       </c>
       <c r="H14">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I14">
         <v>42897171.5685</v>
@@ -1637,7 +1637,7 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I15">
         <v>49987832.6745</v>
@@ -1708,7 +1708,7 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I16">
         <v>49268583.2835</v>
@@ -1779,7 +1779,7 @@
         <v>31</v>
       </c>
       <c r="H17">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I17">
         <v>41293538.9865</v>
@@ -1850,7 +1850,7 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I18">
         <v>49148708.385</v>
@@ -1921,7 +1921,7 @@
         <v>31</v>
       </c>
       <c r="H19">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I19">
         <v>47110835.1105</v>
@@ -1992,7 +1992,7 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I20">
         <v>48821050.3291</v>
@@ -2063,7 +2063,7 @@
         <v>31</v>
       </c>
       <c r="H21">
-        <v>1703706125.410823</v>
+        <v>1703804159.456731</v>
       </c>
       <c r="I21">
         <v>40491722.69550001</v>
@@ -2134,7 +2134,7 @@
         <v>32</v>
       </c>
       <c r="H22">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I22">
         <v>25507825.94879999</v>
@@ -2205,7 +2205,7 @@
         <v>32</v>
       </c>
       <c r="H23">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I23">
         <v>25439231.2068</v>
@@ -2276,7 +2276,7 @@
         <v>32</v>
       </c>
       <c r="H24">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I24">
         <v>25409356.5312</v>
@@ -2347,7 +2347,7 @@
         <v>32</v>
       </c>
       <c r="H25">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I25">
         <v>24976796.346</v>
@@ -2418,7 +2418,7 @@
         <v>32</v>
       </c>
       <c r="H26">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I26">
         <v>24122162.3112</v>
@@ -2489,7 +2489,7 @@
         <v>32</v>
       </c>
       <c r="H27">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I27">
         <v>23872708.9008</v>
@@ -2560,7 +2560,7 @@
         <v>32</v>
       </c>
       <c r="H28">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I28">
         <v>23790534.7608</v>
@@ -2631,7 +2631,7 @@
         <v>32</v>
       </c>
       <c r="H29">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I29">
         <v>23774239.4832</v>
@@ -2702,7 +2702,7 @@
         <v>32</v>
       </c>
       <c r="H30">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I30">
         <v>23538297.564</v>
@@ -2773,7 +2773,7 @@
         <v>32</v>
       </c>
       <c r="H31">
-        <v>1703706125.567661</v>
+        <v>1703804159.603529</v>
       </c>
       <c r="I31">
         <v>23218662.0816</v>

--- a/download/solution_data.xlsx
+++ b/download/solution_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="95">
   <si>
     <t>uuid</t>
   </si>
@@ -55,9 +55,6 @@
     <t>solar_energy_overproduction</t>
   </si>
   <si>
-    <t>battery_capacity_limit</t>
-  </si>
-  <si>
     <t>total_installation_costs</t>
   </si>
   <si>
@@ -79,13 +76,13 @@
     <t>total_battery_capacity</t>
   </si>
   <si>
-    <t>545cc38723c2459db1873e66cf2d702d</t>
-  </si>
-  <si>
-    <t>340fcf7114be408f8f9bdcc06f7be9c2</t>
-  </si>
-  <si>
-    <t>c2f46aeee16042b7add376b5a8ca2f82</t>
+    <t>a918d9b77e6e4aeaa441e420f275bc76</t>
+  </si>
+  <si>
+    <t>31e729bbdd0c4d55ade3c878a976ee9a</t>
+  </si>
+  <si>
+    <t>a8f4b6f9d079418ba7710d86265157b4</t>
   </si>
   <si>
     <t>b1</t>
@@ -100,19 +97,82 @@
     <t>[{'location': 'l00', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 50.0}, {'location': 'l01', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 22.0}]</t>
   </si>
   <si>
-    <t>[{'location': 'l00', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 50.0}, {'location': 'l01', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 22.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 10.0}"]]</t>
+    <t>[{'location': 'l00', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 50.0}, {'location': 'l01', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 22.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 22.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l00', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 50.0}, {'location': 'l01', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 22.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 41.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l01', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 45.0}, {'location': 'l07', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 15.0}, {'location': 'l05', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l01', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 45.0}, {'location': 'l07', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 15.0}, {'location': 'l05', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 22.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l01', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 45.0}, {'location': 'l07', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 15.0}, {'location': 'l05', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 41.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 45.0}, {'location': 'l07', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 15.0}, {'location': 'l05', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 39.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 45.0}, {'location': 'l07', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 15.0}, {'location': 'l05', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 39.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 23.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l02', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 54.0}, {'location': 'l12', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 48.0}, {'location': 'l08', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 45.0}, {'location': 'l07', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 15.0}, {'location': 'l05', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 39.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 41.0}"]]</t>
   </si>
   <si>
     <t>[{'location': 'l00', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 49.0}, {'location': 'l01', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 4.0}]</t>
   </si>
   <si>
-    <t>[{'location': 'l00', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 49.0}, {'location': 'l01', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 4.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 10.0}"]]</t>
+    <t>[{'location': 'l00', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 49.0}, {'location': 'l01', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 4.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 41.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l00', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 49.0}, {'location': 'l01', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 4.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 22.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l01', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 44.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l07', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 8.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l01', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 44.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l07', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 8.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 41.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l01', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 27.0}, {'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 44.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l07', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 8.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 23.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 44.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l07', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 14.0}, {'location': 'l05', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 21.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 44.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l07', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 14.0}, {'location': 'l05', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 21.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 22.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l02', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 53.0}, {'location': 'l12', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 12.0}, {'location': 'l13', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 47.0}, {'location': 'l08', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 19.0}, {'location': 'l10', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 11.0}, {'location': 'l04', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 44.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l07', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 14.0}, {'location': 'l05', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 21.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 41.0}"]]</t>
   </si>
   <si>
     <t>[{'location': 'l00', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 54.0}, {'location': 'l01', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 30.0}, {'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 38.0}]</t>
   </si>
   <si>
-    <t>[{'location': 'l00', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 54.0}, {'location': 'l01', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 30.0}, {'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 38.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 10.0}"]]</t>
+    <t>[{'location': 'l00', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 54.0}, {'location': 'l01', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 30.0}, {'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 38.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 41.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l00', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 54.0}, {'location': 'l01', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 30.0}, {'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 38.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 22.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l01', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 30.0}, {'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 49.0}, {'location': 'l07', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 16.0}, {'location': 'l05', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 27.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l01', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 30.0}, {'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 49.0}, {'location': 'l07', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 16.0}, {'location': 'l05', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 27.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 41.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l01', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 30.0}, {'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 49.0}, {'location': 'l07', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 16.0}, {'location': 'l05', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 27.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 22.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 49.0}, {'location': 'l07', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 16.0}, {'location': 'l05', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 57.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 49.0}, {'location': 'l07', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 16.0}, {'location': 'l05', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 57.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 22.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l02', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 58.0}, {'location': 'l12', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 13.0}, {'location': 'l13', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 52.0}, {'location': 'l08', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l10', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 12.0}, {'location': 'l04', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 49.0}, {'location': 'l07', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 16.0}, {'location': 'l05', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 57.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 41.0}"]]</t>
   </si>
   <si>
     <t>[{'location': 'l21', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 9.0}, {'location': 'l22', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}]</t>
@@ -121,37 +181,124 @@
     <t>[{'location': 'l21', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 9.0}, {'location': 'l22', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 16.0}"]]</t>
   </si>
   <si>
+    <t>[{'location': 'l21', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 9.0}, {'location': 'l22', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 42.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 37.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 1.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 15.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 17.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l24', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 76.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 32.0}"]]</t>
+  </si>
+  <si>
     <t>[{'location': 'l21', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 8.0}, {'location': 'l22', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 28.0}, {'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}]</t>
   </si>
   <si>
-    <t>[{'location': 'l21', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 8.0}, {'location': 'l22', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 28.0}, {'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 16.0}"]]</t>
+    <t>[{'location': 'l21', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 8.0}, {'location': 'l22', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 28.0}, {'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 19.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l21', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 8.0}, {'location': 'l22', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 28.0}, {'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 43.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 28.0}, {'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 28.0}, {'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 42.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 28.0}, {'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 16.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 17.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 15.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l24', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 75.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 32.0}"]]</t>
   </si>
   <si>
     <t>[{'location': 'l21', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 9.0}, {'location': 'l22', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 31.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}]</t>
   </si>
   <si>
-    <t>[{'location': 'l21', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 9.0}, {'location': 'l22', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 31.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 17.0}"]]</t>
+    <t>[{'location': 'l21', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 9.0}, {'location': 'l22', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 31.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 37.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l21', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 9.0}, {'location': 'l22', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 31.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 15.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 31.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 31.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 16.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l22', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 31.0}, {'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 34.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 32.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 1.0}"]]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l23', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l24', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 82.0}, ["{'battery': 'Pylontech US2000C', 'battery_count': 18.0}"]]</t>
   </si>
   <si>
     <t>[{'location': 'l33', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 7.0}, {'location': 'l34', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 4.0}, {'location': 'l35', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 3.0}, {'location': 'l36', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l32', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l38', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l40', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 36.0}, {'location': 'l39', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 40.0}, {'location': 'l37', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 31.0}, {'location': 'l31', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 17.0}]</t>
   </si>
   <si>
+    <t>[{'location': 'l34', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 4.0}, {'location': 'l35', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 3.0}, {'location': 'l36', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l32', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l38', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l40', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 36.0}, {'location': 'l39', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 40.0}, {'location': 'l37', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 31.0}, {'location': 'l31', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 17.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l35', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 3.0}, {'location': 'l36', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 19.0}, {'location': 'l32', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 16.0}, {'location': 'l38', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 29.0}, {'location': 'l40', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 36.0}, {'location': 'l39', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 40.0}, {'location': 'l37', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 31.0}, {'location': 'l31', 'equipment': 'Viessmann PV-Solarmodul Vitovolt 300 M410 WK', 'equipment_count': 17.0}]</t>
+  </si>
+  <si>
     <t>[{'location': 'l33', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 7.0}, {'location': 'l34', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 4.0}, {'location': 'l35', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 3.0}, {'location': 'l36', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 18.0}, {'location': 'l36', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l32', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 16.0}, {'location': 'l38', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 29.0}, {'location': 'l40', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 35.0}, {'location': 'l39', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 39.0}, {'location': 'l37', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 31.0}, {'location': 'l31', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 17.0}]</t>
   </si>
   <si>
+    <t>[{'location': 'l34', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 4.0}, {'location': 'l35', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 3.0}, {'location': 'l36', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 18.0}, {'location': 'l36', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l32', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 16.0}, {'location': 'l38', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 29.0}, {'location': 'l40', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 35.0}, {'location': 'l39', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 39.0}, {'location': 'l37', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 31.0}, {'location': 'l31', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 17.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l35', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 3.0}, {'location': 'l36', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 18.0}, {'location': 'l36', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 1.0}, {'location': 'l32', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 16.0}, {'location': 'l38', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 29.0}, {'location': 'l40', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 35.0}, {'location': 'l39', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 39.0}, {'location': 'l37', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 31.0}, {'location': 'l31', 'equipment': 'Trina VertexS-NEG9R.28', 'equipment_count': 17.0}]</t>
+  </si>
+  <si>
     <t>[{'location': 'l33', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 7.0}, {'location': 'l34', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 4.0}, {'location': 'l35', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 3.0}, {'location': 'l36', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l32', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l38', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 32.0}, {'location': 'l40', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 39.0}, {'location': 'l39', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 43.0}, {'location': 'l37', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 34.0}, {'location': 'l31', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 18.0}]</t>
   </si>
   <si>
-    <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 150, 'min_equipment_count': 10, 'shown_solutions_limit': 10, 'battery_capacity_uplimit': 2.0, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
-  </si>
-  <si>
-    <t>d348cca08e794f3d8e0c27dddb617f24</t>
-  </si>
-  <si>
-    <t>bf88028753314071a66d8b740ef4712b</t>
-  </si>
-  <si>
-    <t>e25e6a1e570147a7a12c340b6427ea98</t>
+    <t>[{'location': 'l34', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 4.0}, {'location': 'l35', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 3.0}, {'location': 'l36', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l32', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l38', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 32.0}, {'location': 'l40', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 39.0}, {'location': 'l39', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 43.0}, {'location': 'l37', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 34.0}, {'location': 'l31', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 18.0}]</t>
+  </si>
+  <si>
+    <t>[{'location': 'l35', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 3.0}, {'location': 'l36', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 20.0}, {'location': 'l32', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 17.0}, {'location': 'l38', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 32.0}, {'location': 'l40', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 39.0}, {'location': 'l39', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 43.0}, {'location': 'l37', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 34.0}, {'location': 'l31', 'equipment': 'FuturaSun Silk Pro All Black 360W', 'equipment_count': 18.0}]</t>
+  </si>
+  <si>
+    <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+  </si>
+  <si>
+    <t>bc3efaa666c045edafc82dc6ccbda9dc</t>
+  </si>
+  <si>
+    <t>0f877c9de94645baaf99809c06f3704b</t>
+  </si>
+  <si>
+    <t>a324778476f14bc5bbfc4e992e3b6cba</t>
   </si>
 </sst>
 </file>
@@ -509,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,34 +723,31 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="I2">
-        <v>1707677981.672151</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J2">
         <v>94350278.73459999</v>
@@ -621,51 +765,48 @@
         <v>62886623.56469434</v>
       </c>
       <c r="O2">
-        <v>18049.70579069162</v>
+        <v>60750</v>
       </c>
       <c r="P2">
-        <v>60750</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>8274.58872979907</v>
       </c>
       <c r="R2">
-        <v>8274.58872979907</v>
+        <v>11376.9</v>
       </c>
       <c r="S2">
-        <v>11376.9</v>
+        <v>11323.66091915668</v>
       </c>
       <c r="T2">
-        <v>11323.66091915668</v>
-      </c>
-      <c r="U2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="I3">
-        <v>1707677981.672151</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J3">
         <v>94350278.73459999</v>
@@ -674,857 +815,3861 @@
         <v>37922999.99999999</v>
       </c>
       <c r="L3">
-        <v>35907845.00166138</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="M3">
-        <v>2162002.487637418</v>
+        <v>146847.4892988047</v>
       </c>
       <c r="N3">
-        <v>58442433.73293863</v>
+        <v>56427278.73460001</v>
       </c>
       <c r="O3">
-        <v>18049.70579069162</v>
+        <v>95950</v>
       </c>
       <c r="P3">
-        <v>76750</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>7628.654246789639</v>
       </c>
       <c r="R3">
-        <v>7830.169746623502</v>
+        <v>11376.9</v>
       </c>
       <c r="S3">
-        <v>11376.9</v>
+        <v>12098.782298768</v>
       </c>
       <c r="T3">
-        <v>11856.96369896737</v>
+        <v>6</v>
       </c>
       <c r="U3">
-        <v>8</v>
-      </c>
-      <c r="V3">
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="I4">
-        <v>1707677981.672151</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J4">
-        <v>94674958.389</v>
+        <v>94350278.73459999</v>
       </c>
       <c r="K4">
         <v>37922999.99999999</v>
       </c>
       <c r="L4">
-        <v>31488330.55020565</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="M4">
-        <v>6581516.939093133</v>
+        <v>146847.4892988047</v>
       </c>
       <c r="N4">
-        <v>63186627.83879435</v>
+        <v>56427278.73460001</v>
       </c>
       <c r="O4">
-        <v>17982.2867188337</v>
+        <v>126350</v>
       </c>
       <c r="P4">
-        <v>61050</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>7628.654246789639</v>
       </c>
       <c r="R4">
-        <v>8272.121191769071</v>
+        <v>11376.9</v>
       </c>
       <c r="S4">
-        <v>11376.9</v>
+        <v>12098.782298768</v>
       </c>
       <c r="T4">
-        <v>11352.59633714468</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="I5">
-        <v>1707677981.672151</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J5">
-        <v>94674958.389</v>
+        <v>92167187.1381</v>
       </c>
       <c r="K5">
         <v>37922999.99999999</v>
       </c>
       <c r="L5">
-        <v>35936698.87786137</v>
+        <v>31321910.24258383</v>
       </c>
       <c r="M5">
-        <v>2133148.611437416</v>
+        <v>6747937.246714951</v>
       </c>
       <c r="N5">
-        <v>58738259.51113863</v>
+        <v>60845276.89551616</v>
       </c>
       <c r="O5">
-        <v>17982.2867188337</v>
+        <v>60750</v>
       </c>
       <c r="P5">
-        <v>77050</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>8288.763222531252</v>
       </c>
       <c r="R5">
-        <v>7827.284359003498</v>
+        <v>11376.9</v>
       </c>
       <c r="S5">
-        <v>11376.9</v>
+        <v>11132.00420015806</v>
       </c>
       <c r="T5">
-        <v>11886.40053646336</v>
-      </c>
-      <c r="U5">
-        <v>8</v>
-      </c>
-      <c r="V5">
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="I6">
-        <v>1707677981.672151</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J6">
-        <v>94391225.42399999</v>
+        <v>92167187.1381</v>
       </c>
       <c r="K6">
         <v>37922999.99999999</v>
       </c>
       <c r="L6">
-        <v>31461617.61960565</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="M6">
-        <v>6608229.869693134</v>
+        <v>146847.4892988</v>
       </c>
       <c r="N6">
-        <v>62929607.80439435</v>
+        <v>54244187.13810001</v>
       </c>
       <c r="O6">
-        <v>18055.27286801403</v>
+        <v>95950</v>
       </c>
       <c r="P6">
-        <v>137807.5</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>7628.654246789638</v>
       </c>
       <c r="R6">
-        <v>8274.792484829071</v>
+        <v>11376.9</v>
       </c>
       <c r="S6">
-        <v>11376.9</v>
+        <v>11924.134971048</v>
       </c>
       <c r="T6">
-        <v>11326.69214827268</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="I7">
-        <v>1707677981.672151</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J7">
-        <v>94391225.42399999</v>
+        <v>92167187.1381</v>
       </c>
       <c r="K7">
         <v>37922999.99999999</v>
       </c>
       <c r="L7">
-        <v>35905796.93416137</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="M7">
-        <v>2164050.555137417</v>
+        <v>146847.4892988</v>
       </c>
       <c r="N7">
-        <v>58485428.48983863</v>
+        <v>54244187.13810001</v>
       </c>
       <c r="O7">
-        <v>18055.27286801403</v>
+        <v>126350</v>
       </c>
       <c r="P7">
-        <v>153807.5</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>7628.654246789638</v>
       </c>
       <c r="R7">
-        <v>7830.374553373499</v>
+        <v>11376.9</v>
       </c>
       <c r="S7">
-        <v>11376.9</v>
+        <v>11924.134971048</v>
       </c>
       <c r="T7">
-        <v>11859.99366601937</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>17</v>
-      </c>
-      <c r="V7">
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I8">
-        <v>1707677981.681443</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J8">
-        <v>50524025.13599999</v>
+        <v>90059724.5967</v>
       </c>
       <c r="K8">
         <v>37922999.99999999</v>
       </c>
       <c r="L8">
-        <v>27724435.81652815</v>
+        <v>31179357.65082566</v>
       </c>
       <c r="M8">
-        <v>10345411.67277064</v>
+        <v>6890489.838473122</v>
       </c>
       <c r="N8">
-        <v>22799589.31947185</v>
+        <v>58880366.94587433</v>
       </c>
       <c r="O8">
-        <v>28266.15211139519</v>
+        <v>60750</v>
       </c>
       <c r="P8">
-        <v>32500</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>8303.018481707069</v>
       </c>
       <c r="R8">
-        <v>8648.510665136821</v>
+        <v>11376.9</v>
       </c>
       <c r="S8">
-        <v>11376.9</v>
+        <v>10946.30088583508</v>
       </c>
       <c r="T8">
-        <v>7368.854308863378</v>
-      </c>
-      <c r="U8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I9">
-        <v>1707677981.681443</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J9">
-        <v>50524025.13599999</v>
+        <v>90059724.5967</v>
       </c>
       <c r="K9">
         <v>37922999.99999999</v>
       </c>
       <c r="L9">
-        <v>32987552.19606473</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="M9">
-        <v>5082295.293234048</v>
+        <v>146847.4892988009</v>
       </c>
       <c r="N9">
-        <v>17536472.93993526</v>
+        <v>52136724.59670001</v>
       </c>
       <c r="O9">
-        <v>28266.15211139519</v>
+        <v>97550</v>
       </c>
       <c r="P9">
-        <v>58100</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>7628.654246789638</v>
       </c>
       <c r="R9">
-        <v>8122.199027183162</v>
+        <v>11376.9</v>
       </c>
       <c r="S9">
-        <v>11376.9</v>
+        <v>11755.537967736</v>
       </c>
       <c r="T9">
-        <v>8000.428274407768</v>
+        <v>6</v>
       </c>
       <c r="U9">
-        <v>9</v>
-      </c>
-      <c r="V9">
-        <v>26880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>38640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I10">
-        <v>1707677981.681443</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J10">
-        <v>54088196.5152</v>
+        <v>90059724.5967</v>
       </c>
       <c r="K10">
         <v>37922999.99999999</v>
       </c>
       <c r="L10">
-        <v>28205931.76310746</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="M10">
-        <v>9863915.726191331</v>
+        <v>146847.4892988009</v>
       </c>
       <c r="N10">
-        <v>25882264.75209255</v>
+        <v>52136724.59670001</v>
       </c>
       <c r="O10">
-        <v>26950.58941582331</v>
+        <v>126350</v>
       </c>
       <c r="P10">
-        <v>35147.5</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>7628.654246789638</v>
       </c>
       <c r="R10">
-        <v>8600.36107047889</v>
+        <v>11376.9</v>
       </c>
       <c r="S10">
-        <v>11376.9</v>
+        <v>11755.537967736</v>
       </c>
       <c r="T10">
-        <v>7711.767532788896</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I11">
-        <v>1707677981.681443</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J11">
-        <v>54088196.5152</v>
+        <v>94674958.389</v>
       </c>
       <c r="K11">
         <v>37922999.99999999</v>
       </c>
       <c r="L11">
-        <v>33761675.67956304</v>
+        <v>31488330.55020565</v>
       </c>
       <c r="M11">
-        <v>4308171.809735752</v>
+        <v>6581516.939093133</v>
       </c>
       <c r="N11">
-        <v>20326520.83563697</v>
+        <v>63186627.83879435</v>
       </c>
       <c r="O11">
-        <v>26950.58941582331</v>
+        <v>61050</v>
       </c>
       <c r="P11">
-        <v>60747.5</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>8272.121191769071</v>
       </c>
       <c r="R11">
-        <v>8044.786678833332</v>
+        <v>11376.9</v>
       </c>
       <c r="S11">
-        <v>11376.9</v>
+        <v>11352.59633714468</v>
       </c>
       <c r="T11">
-        <v>8378.456802763565</v>
-      </c>
-      <c r="U11">
-        <v>9</v>
-      </c>
-      <c r="V11">
-        <v>26880</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I12">
-        <v>1707677981.681443</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J12">
-        <v>47433812.7168</v>
+        <v>94674958.389</v>
       </c>
       <c r="K12">
         <v>37922999.99999999</v>
       </c>
       <c r="L12">
-        <v>27218108.13325159</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="M12">
-        <v>10851739.35604719</v>
+        <v>146847.4892988</v>
       </c>
       <c r="N12">
-        <v>20215704.58354841</v>
+        <v>56751958.38900001</v>
       </c>
       <c r="O12">
-        <v>29649.56108209616</v>
+        <v>126650</v>
       </c>
       <c r="P12">
-        <v>69152.5</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>7628.654246789638</v>
       </c>
       <c r="R12">
-        <v>8699.143433464476</v>
+        <v>11376.9</v>
       </c>
       <c r="S12">
-        <v>11376.9</v>
+        <v>12124.75667112</v>
       </c>
       <c r="T12">
-        <v>7060.87799333419</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J13">
+        <v>94674958.389</v>
+      </c>
+      <c r="K13">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L13">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M13">
+        <v>146847.4892988</v>
+      </c>
+      <c r="N13">
+        <v>56751958.38900001</v>
+      </c>
+      <c r="O13">
+        <v>96250</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>7628.654246789638</v>
+      </c>
+      <c r="R13">
+        <v>11376.9</v>
+      </c>
+      <c r="S13">
+        <v>12124.75667112</v>
+      </c>
+      <c r="T13">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13">
-        <v>1707677981.681443</v>
-      </c>
-      <c r="J13">
-        <v>47433812.7168</v>
-      </c>
-      <c r="K13">
-        <v>37922999.99999999</v>
-      </c>
-      <c r="L13">
-        <v>32532475.13286539</v>
-      </c>
-      <c r="M13">
-        <v>5537372.356433393</v>
-      </c>
-      <c r="N13">
-        <v>14901337.58393461</v>
-      </c>
-      <c r="O13">
-        <v>29649.56108209616</v>
-      </c>
-      <c r="P13">
-        <v>96352.5</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>8167.706733503097</v>
-      </c>
-      <c r="S13">
-        <v>11376.9</v>
-      </c>
-      <c r="T13">
-        <v>7698.602033287847</v>
-      </c>
       <c r="U13">
-        <v>16</v>
-      </c>
-      <c r="V13">
-        <v>28560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I14">
-        <v>1707677981.691247</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J14">
-        <v>66611386.14269999</v>
+        <v>93737043.513</v>
       </c>
       <c r="K14">
-        <v>640441999.9999999</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="L14">
-        <v>66611386.14269999</v>
+        <v>31416376.51410566</v>
       </c>
       <c r="M14">
-        <v>573830613.8573</v>
+        <v>6653470.975193134</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>62320666.99889435</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>61272.5</v>
       </c>
       <c r="P14">
-        <v>50500</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>8279.31659537907</v>
       </c>
       <c r="R14">
-        <v>185471.46138573</v>
+        <v>11376.9</v>
       </c>
       <c r="S14">
-        <v>192132.5999999999</v>
+        <v>11268.92866273268</v>
       </c>
       <c r="T14">
-        <v>13322.27722854</v>
-      </c>
-      <c r="U14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="I15">
-        <v>1707677981.691247</v>
+        <v>1707765044.089527</v>
       </c>
       <c r="J15">
-        <v>72321263.31420001</v>
+        <v>93737043.513</v>
       </c>
       <c r="K15">
-        <v>640441999.9999999</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="L15">
-        <v>72321263.31420001</v>
+        <v>37922999.99999999</v>
       </c>
       <c r="M15">
-        <v>568120736.6857998</v>
+        <v>146847.4892988037</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>55814043.51300002</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>126872.5</v>
       </c>
       <c r="P15">
-        <v>55222.5</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>7628.654246789639</v>
       </c>
       <c r="R15">
-        <v>184900.4736685799</v>
+        <v>11376.9</v>
       </c>
       <c r="S15">
-        <v>192132.5999999999</v>
+        <v>12049.72348104</v>
       </c>
       <c r="T15">
-        <v>14464.25266284</v>
+        <v>6</v>
       </c>
       <c r="U15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="D16">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J16">
+        <v>93737043.513</v>
+      </c>
+      <c r="K16">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L16">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M16">
+        <v>146847.4892988037</v>
+      </c>
+      <c r="N16">
+        <v>55814043.51300002</v>
+      </c>
+      <c r="O16">
+        <v>98072.5</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7628.654246789639</v>
+      </c>
+      <c r="R16">
+        <v>11376.9</v>
+      </c>
+      <c r="S16">
+        <v>12049.72348104</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>38640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J17">
+        <v>91430423.63100001</v>
+      </c>
+      <c r="K17">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L17">
+        <v>31270289.44812566</v>
+      </c>
+      <c r="M17">
+        <v>6799558.041173121</v>
+      </c>
+      <c r="N17">
+        <v>60160134.18287434</v>
+      </c>
+      <c r="O17">
+        <v>61272.5</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8293.925301977068</v>
+      </c>
+      <c r="R17">
+        <v>11376.9</v>
+      </c>
+      <c r="S17">
+        <v>11066.86862425508</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J18">
+        <v>91430423.63100001</v>
+      </c>
+      <c r="K18">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L18">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M18">
+        <v>146847.4892987963</v>
+      </c>
+      <c r="N18">
+        <v>53507423.63100001</v>
+      </c>
+      <c r="O18">
+        <v>96472.5</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7628.654246789636</v>
+      </c>
+      <c r="R18">
+        <v>11376.9</v>
+      </c>
+      <c r="S18">
+        <v>11865.19389048</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J19">
+        <v>91430423.63100001</v>
+      </c>
+      <c r="K19">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L19">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M19">
+        <v>146847.4892987963</v>
+      </c>
+      <c r="N19">
+        <v>53507423.63100001</v>
+      </c>
+      <c r="O19">
+        <v>126872.5</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7628.654246789636</v>
+      </c>
+      <c r="R19">
+        <v>11376.9</v>
+      </c>
+      <c r="S19">
+        <v>11865.19389048</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J20">
+        <v>94391225.42399999</v>
+      </c>
+      <c r="K20">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L20">
+        <v>31461617.61960565</v>
+      </c>
+      <c r="M20">
+        <v>6608229.869693134</v>
+      </c>
+      <c r="N20">
+        <v>62929607.80439435</v>
+      </c>
+      <c r="O20">
+        <v>137807.5</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8274.792484829071</v>
+      </c>
+      <c r="R20">
+        <v>11376.9</v>
+      </c>
+      <c r="S20">
+        <v>11326.69214827268</v>
+      </c>
+      <c r="T20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J21">
+        <v>94391225.42399999</v>
+      </c>
+      <c r="K21">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L21">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M21">
+        <v>146847.4892988019</v>
+      </c>
+      <c r="N21">
+        <v>56468225.42400002</v>
+      </c>
+      <c r="O21">
+        <v>203407.5</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>7628.654246789638</v>
+      </c>
+      <c r="R21">
+        <v>11376.9</v>
+      </c>
+      <c r="S21">
+        <v>12102.05803392</v>
+      </c>
+      <c r="T21">
+        <v>15</v>
+      </c>
+      <c r="U21">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J22">
+        <v>94391225.42399999</v>
+      </c>
+      <c r="K22">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L22">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M22">
+        <v>146847.4892988019</v>
+      </c>
+      <c r="N22">
+        <v>56468225.42400002</v>
+      </c>
+      <c r="O22">
+        <v>173007.5</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>7628.654246789638</v>
+      </c>
+      <c r="R22">
+        <v>11376.9</v>
+      </c>
+      <c r="S22">
+        <v>12102.05803392</v>
+      </c>
+      <c r="T22">
+        <v>15</v>
+      </c>
+      <c r="U22">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J23">
+        <v>91420034.22</v>
+      </c>
+      <c r="K23">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L23">
+        <v>31274257.73442566</v>
+      </c>
+      <c r="M23">
+        <v>6795589.754873122</v>
+      </c>
+      <c r="N23">
+        <v>60145776.48557433</v>
+      </c>
+      <c r="O23">
+        <v>137807.5</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8293.528473347069</v>
+      </c>
+      <c r="R23">
+        <v>11376.9</v>
+      </c>
+      <c r="S23">
+        <v>11066.51366573108</v>
+      </c>
+      <c r="T23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J24">
+        <v>91420034.22</v>
+      </c>
+      <c r="K24">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L24">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M24">
+        <v>146847.4892988009</v>
+      </c>
+      <c r="N24">
+        <v>53497034.22000001</v>
+      </c>
+      <c r="O24">
+        <v>203407.5</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>7628.654246789638</v>
+      </c>
+      <c r="R24">
+        <v>11376.9</v>
+      </c>
+      <c r="S24">
+        <v>11864.3627376</v>
+      </c>
+      <c r="T24">
+        <v>15</v>
+      </c>
+      <c r="U24">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J25">
+        <v>91420034.22</v>
+      </c>
+      <c r="K25">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L25">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M25">
+        <v>146847.4892988009</v>
+      </c>
+      <c r="N25">
+        <v>53497034.22000001</v>
+      </c>
+      <c r="O25">
+        <v>173007.5</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>7628.654246789638</v>
+      </c>
+      <c r="R25">
+        <v>11376.9</v>
+      </c>
+      <c r="S25">
+        <v>11864.3627376</v>
+      </c>
+      <c r="T25">
+        <v>15</v>
+      </c>
+      <c r="U25">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J26">
+        <v>89363973.204</v>
+      </c>
+      <c r="K26">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L26">
+        <v>31131225.0292775</v>
+      </c>
+      <c r="M26">
+        <v>6938622.460021281</v>
+      </c>
+      <c r="N26">
+        <v>58232748.17472249</v>
+      </c>
+      <c r="O26">
+        <v>137807.5</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>8307.831743861885</v>
+      </c>
+      <c r="R26">
+        <v>11376.9</v>
+      </c>
+      <c r="S26">
+        <v>10884.8648598333</v>
+      </c>
+      <c r="T26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J27">
+        <v>89363973.204</v>
+      </c>
+      <c r="K27">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L27">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M27">
+        <v>146847.4892987991</v>
+      </c>
+      <c r="N27">
+        <v>51440973.20400001</v>
+      </c>
+      <c r="O27">
+        <v>173007.5</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>7628.654246789637</v>
+      </c>
+      <c r="R27">
+        <v>11376.9</v>
+      </c>
+      <c r="S27">
+        <v>11699.87785632</v>
+      </c>
+      <c r="T27">
+        <v>15</v>
+      </c>
+      <c r="U27">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28">
+        <v>1707765044.089527</v>
+      </c>
+      <c r="J28">
+        <v>89363973.204</v>
+      </c>
+      <c r="K28">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L28">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M28">
+        <v>146847.4892987991</v>
+      </c>
+      <c r="N28">
+        <v>51440973.20400001</v>
+      </c>
+      <c r="O28">
+        <v>203407.5</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>7628.654246789637</v>
+      </c>
+      <c r="R28">
+        <v>11376.9</v>
+      </c>
+      <c r="S28">
+        <v>11699.87785632</v>
+      </c>
+      <c r="T28">
+        <v>15</v>
+      </c>
+      <c r="U28">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J29">
+        <v>50524025.13599999</v>
+      </c>
+      <c r="K29">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L29">
+        <v>27724435.81652815</v>
+      </c>
+      <c r="M29">
+        <v>10345411.67277064</v>
+      </c>
+      <c r="N29">
+        <v>22799589.31947185</v>
+      </c>
+      <c r="O29">
+        <v>32500</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>8648.510665136821</v>
+      </c>
+      <c r="R29">
+        <v>11376.9</v>
+      </c>
+      <c r="S29">
+        <v>7368.854308863378</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J30">
+        <v>50524025.13599999</v>
+      </c>
+      <c r="K30">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L30">
+        <v>32987552.19606473</v>
+      </c>
+      <c r="M30">
+        <v>5082295.293234048</v>
+      </c>
+      <c r="N30">
+        <v>17536472.93993526</v>
+      </c>
+      <c r="O30">
+        <v>58100</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>8122.199027183162</v>
+      </c>
+      <c r="R30">
+        <v>11376.9</v>
+      </c>
+      <c r="S30">
+        <v>8000.428274407768</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>26880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J31">
+        <v>50524025.13599999</v>
+      </c>
+      <c r="K31">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L31">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M31">
+        <v>146847.4892987981</v>
+      </c>
+      <c r="N31">
+        <v>12601025.13600001</v>
+      </c>
+      <c r="O31">
+        <v>99700</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>7628.654246789637</v>
+      </c>
+      <c r="R31">
+        <v>11376.9</v>
+      </c>
+      <c r="S31">
+        <v>8592.682010879998</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <v>70560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J32">
+        <v>47026208.0112</v>
+      </c>
+      <c r="K32">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L32">
+        <v>27148041.96385159</v>
+      </c>
+      <c r="M32">
+        <v>10921805.5254472</v>
+      </c>
+      <c r="N32">
+        <v>19878166.04734841</v>
+      </c>
+      <c r="O32">
+        <v>30250</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>8706.150050404476</v>
+      </c>
+      <c r="R32">
+        <v>11376.9</v>
+      </c>
+      <c r="S32">
+        <v>7019.861676558192</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J33">
+        <v>47026208.0112</v>
+      </c>
+      <c r="K33">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L33">
+        <v>37470921.94219509</v>
+      </c>
+      <c r="M33">
+        <v>598925.5471036956</v>
+      </c>
+      <c r="N33">
+        <v>9555286.06900491</v>
+      </c>
+      <c r="O33">
+        <v>89450</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>7673.862052570127</v>
+      </c>
+      <c r="R33">
+        <v>11376.9</v>
+      </c>
+      <c r="S33">
+        <v>8258.607273959411</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>62160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J34">
+        <v>47026208.0112</v>
+      </c>
+      <c r="K34">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L34">
+        <v>27494121.96385159</v>
+      </c>
+      <c r="M34">
+        <v>10575725.5254472</v>
+      </c>
+      <c r="N34">
+        <v>19532086.04734841</v>
+      </c>
+      <c r="O34">
+        <v>31850</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>8671.542050404478</v>
+      </c>
+      <c r="R34">
+        <v>11376.9</v>
+      </c>
+      <c r="S34">
+        <v>7061.391276558192</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J35">
+        <v>47026208.0112</v>
+      </c>
+      <c r="K35">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L35">
+        <v>31859664.97340396</v>
+      </c>
+      <c r="M35">
+        <v>6210182.515894823</v>
+      </c>
+      <c r="N35">
+        <v>15166543.03779604</v>
+      </c>
+      <c r="O35">
+        <v>54250</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>8234.987749449239</v>
+      </c>
+      <c r="R35">
+        <v>11376.9</v>
+      </c>
+      <c r="S35">
+        <v>7585.256437704475</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J36">
+        <v>35755463.94239999</v>
+      </c>
+      <c r="K36">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L36">
+        <v>24597829.5399808</v>
+      </c>
+      <c r="M36">
+        <v>13472017.94931799</v>
+      </c>
+      <c r="N36">
+        <v>11157634.4024192</v>
+      </c>
+      <c r="O36">
+        <v>23000</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>8961.171292791554</v>
+      </c>
+      <c r="R36">
+        <v>11376.9</v>
+      </c>
+      <c r="S36">
+        <v>5812.176660189696</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J37">
+        <v>35755463.94239999</v>
+      </c>
+      <c r="K37">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L37">
+        <v>28753576.84364598</v>
+      </c>
+      <c r="M37">
+        <v>9316270.645652806</v>
+      </c>
+      <c r="N37">
+        <v>7001887.09875402</v>
+      </c>
+      <c r="O37">
+        <v>50200</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>8545.596562425038</v>
+      </c>
+      <c r="R37">
+        <v>11376.9</v>
+      </c>
+      <c r="S37">
+        <v>6310.866336629519</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J38">
+        <v>35755463.94239999</v>
+      </c>
+      <c r="K38">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L38">
+        <v>31599899.75922467</v>
+      </c>
+      <c r="M38">
+        <v>6469947.730074112</v>
+      </c>
+      <c r="N38">
+        <v>4155564.183175326</v>
+      </c>
+      <c r="O38">
+        <v>74200</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>8260.964270867167</v>
+      </c>
+      <c r="R38">
+        <v>11376.9</v>
+      </c>
+      <c r="S38">
+        <v>6652.425086498961</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>53760</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J39">
+        <v>54088196.5152</v>
+      </c>
+      <c r="K39">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L39">
+        <v>28205931.76310746</v>
+      </c>
+      <c r="M39">
+        <v>9863915.726191331</v>
+      </c>
+      <c r="N39">
+        <v>25882264.75209255</v>
+      </c>
+      <c r="O39">
+        <v>35147.5</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>8600.36107047889</v>
+      </c>
+      <c r="R39">
+        <v>11376.9</v>
+      </c>
+      <c r="S39">
+        <v>7711.767532788896</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J40">
+        <v>54088196.5152</v>
+      </c>
+      <c r="K40">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L40">
+        <v>34695707.03078941</v>
+      </c>
+      <c r="M40">
+        <v>3374140.458509382</v>
+      </c>
+      <c r="N40">
+        <v>19392489.4844106</v>
+      </c>
+      <c r="O40">
+        <v>65547.5</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>7951.383543710695</v>
+      </c>
+      <c r="R40">
+        <v>11376.9</v>
+      </c>
+      <c r="S40">
+        <v>8490.540564910729</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="U40">
+        <v>31920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J41">
+        <v>54088196.5152</v>
+      </c>
+      <c r="K41">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L41">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M41">
+        <v>146847.4892988019</v>
+      </c>
+      <c r="N41">
+        <v>16165196.51520002</v>
+      </c>
+      <c r="O41">
+        <v>103947.5</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>7628.654246789638</v>
+      </c>
+      <c r="R41">
+        <v>11376.9</v>
+      </c>
+      <c r="S41">
+        <v>8877.815721215999</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="U41">
+        <v>72240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J42">
+        <v>50675692.0032</v>
+      </c>
+      <c r="K42">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L42">
+        <v>27747121.12532815</v>
+      </c>
+      <c r="M42">
+        <v>10322726.36397064</v>
+      </c>
+      <c r="N42">
+        <v>22928570.87787186</v>
+      </c>
+      <c r="O42">
+        <v>32947.5</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>8646.242134256821</v>
+      </c>
+      <c r="R42">
+        <v>11376.9</v>
+      </c>
+      <c r="S42">
+        <v>7383.709895295378</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J43">
+        <v>50675692.0032</v>
+      </c>
+      <c r="K43">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L43">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="M43">
+        <v>146847.4892987981</v>
+      </c>
+      <c r="N43">
+        <v>12752692.00320002</v>
+      </c>
+      <c r="O43">
+        <v>100147.5</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>7628.654246789637</v>
+      </c>
+      <c r="R43">
+        <v>11376.9</v>
+      </c>
+      <c r="S43">
+        <v>8604.815360256</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="U43">
+        <v>70560</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J44">
+        <v>50675692.0032</v>
+      </c>
+      <c r="K44">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L44">
+        <v>33021400.15446474</v>
+      </c>
+      <c r="M44">
+        <v>5048447.334834048</v>
+      </c>
+      <c r="N44">
+        <v>17654291.84873527</v>
+      </c>
+      <c r="O44">
+        <v>58547.5</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>8118.814231343163</v>
+      </c>
+      <c r="R44">
+        <v>11376.9</v>
+      </c>
+      <c r="S44">
+        <v>8016.62337879177</v>
+      </c>
+      <c r="T44">
+        <v>5</v>
+      </c>
+      <c r="U44">
+        <v>26880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J45">
+        <v>38731926.2112</v>
+      </c>
+      <c r="K45">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L45">
+        <v>25418880.13203022</v>
+      </c>
+      <c r="M45">
+        <v>12650967.35726857</v>
+      </c>
+      <c r="N45">
+        <v>13313046.07916979</v>
+      </c>
+      <c r="O45">
+        <v>25247.5</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>8879.066233586615</v>
+      </c>
+      <c r="R45">
+        <v>11376.9</v>
+      </c>
+      <c r="S45">
+        <v>6148.819712739627</v>
+      </c>
+      <c r="T45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J46">
+        <v>38731926.2112</v>
+      </c>
+      <c r="K46">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L46">
+        <v>29886063.52002335</v>
+      </c>
+      <c r="M46">
+        <v>8183783.969275434</v>
+      </c>
+      <c r="N46">
+        <v>8845862.691176651</v>
+      </c>
+      <c r="O46">
+        <v>52447.5</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>8432.347894787301</v>
+      </c>
+      <c r="R46">
+        <v>11376.9</v>
+      </c>
+      <c r="S46">
+        <v>6684.881719298803</v>
+      </c>
+      <c r="T46">
+        <v>5</v>
+      </c>
+      <c r="U46">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J47">
+        <v>38731926.2112</v>
+      </c>
+      <c r="K47">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L47">
+        <v>33022447.34632911</v>
+      </c>
+      <c r="M47">
+        <v>5047400.142969678</v>
+      </c>
+      <c r="N47">
+        <v>5709478.864870896</v>
+      </c>
+      <c r="O47">
+        <v>76447.5</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>8118.709512156725</v>
+      </c>
+      <c r="R47">
+        <v>11376.9</v>
+      </c>
+      <c r="S47">
+        <v>7061.247778455493</v>
+      </c>
+      <c r="T47">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>53760</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J48">
+        <v>47433812.7168</v>
+      </c>
+      <c r="K48">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L48">
+        <v>27218108.13325159</v>
+      </c>
+      <c r="M48">
+        <v>10851739.35604719</v>
+      </c>
+      <c r="N48">
+        <v>20215704.58354841</v>
+      </c>
+      <c r="O48">
+        <v>69152.5</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>8699.143433464476</v>
+      </c>
+      <c r="R48">
+        <v>11376.9</v>
+      </c>
+      <c r="S48">
+        <v>7060.87799333419</v>
+      </c>
+      <c r="T48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J49">
+        <v>47433812.7168</v>
+      </c>
+      <c r="K49">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L49">
+        <v>37627149.83459508</v>
+      </c>
+      <c r="M49">
+        <v>442697.6547036953</v>
+      </c>
+      <c r="N49">
+        <v>9806662.882204909</v>
+      </c>
+      <c r="O49">
+        <v>128352.5</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>7658.239263330125</v>
+      </c>
+      <c r="R49">
+        <v>11376.9</v>
+      </c>
+      <c r="S49">
+        <v>8309.96299749541</v>
+      </c>
+      <c r="T49">
+        <v>10</v>
+      </c>
+      <c r="U49">
+        <v>62160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J50">
+        <v>47433812.7168</v>
+      </c>
+      <c r="K50">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L50">
+        <v>31962424.68524401</v>
+      </c>
+      <c r="M50">
+        <v>6107422.804054779</v>
+      </c>
+      <c r="N50">
+        <v>15471388.03155599</v>
+      </c>
+      <c r="O50">
+        <v>93152.5</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>8224.711778265235</v>
+      </c>
+      <c r="R50">
+        <v>11376.9</v>
+      </c>
+      <c r="S50">
+        <v>7630.19597957328</v>
+      </c>
+      <c r="T50">
+        <v>11</v>
+      </c>
+      <c r="U50">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J51">
+        <v>44362558.656</v>
+      </c>
+      <c r="K51">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L51">
+        <v>26660158.9168887</v>
+      </c>
+      <c r="M51">
+        <v>11409688.57241008</v>
+      </c>
+      <c r="N51">
+        <v>17702399.7391113</v>
+      </c>
+      <c r="O51">
+        <v>64675</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>8754.938355100765</v>
+      </c>
+      <c r="R51">
+        <v>11376.9</v>
+      </c>
+      <c r="S51">
+        <v>6748.223762506645</v>
+      </c>
+      <c r="T51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J52">
+        <v>44362558.656</v>
+      </c>
+      <c r="K52">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L52">
+        <v>31402010.67194545</v>
+      </c>
+      <c r="M52">
+        <v>6667836.817353338</v>
+      </c>
+      <c r="N52">
+        <v>12960547.98405455</v>
+      </c>
+      <c r="O52">
+        <v>90275</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>8280.753179595091</v>
+      </c>
+      <c r="R52">
+        <v>11376.9</v>
+      </c>
+      <c r="S52">
+        <v>7317.245973113453</v>
+      </c>
+      <c r="T52">
+        <v>11</v>
+      </c>
+      <c r="U52">
+        <v>26880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J53">
+        <v>44362558.656</v>
+      </c>
+      <c r="K53">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L53">
+        <v>35794500.07417919</v>
+      </c>
+      <c r="M53">
+        <v>2275347.415119594</v>
+      </c>
+      <c r="N53">
+        <v>8568058.581820808</v>
+      </c>
+      <c r="O53">
+        <v>119075</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>7841.504239371717</v>
+      </c>
+      <c r="R53">
+        <v>11376.9</v>
+      </c>
+      <c r="S53">
+        <v>7844.344701381503</v>
+      </c>
+      <c r="T53">
+        <v>10</v>
+      </c>
+      <c r="U53">
+        <v>57120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16">
-        <v>1707677981.691247</v>
-      </c>
-      <c r="J16">
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J54">
+        <v>33783794.6688</v>
+      </c>
+      <c r="K54">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L54">
+        <v>24012323.54244906</v>
+      </c>
+      <c r="M54">
+        <v>14057523.94684971</v>
+      </c>
+      <c r="N54">
+        <v>9771471.126350932</v>
+      </c>
+      <c r="O54">
+        <v>49252.5</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>9019.721892544727</v>
+      </c>
+      <c r="R54">
+        <v>11376.9</v>
+      </c>
+      <c r="S54">
+        <v>5584.182398597887</v>
+      </c>
+      <c r="T54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J55">
+        <v>33783794.6688</v>
+      </c>
+      <c r="K55">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L55">
+        <v>30566243.79561516</v>
+      </c>
+      <c r="M55">
+        <v>7503603.693683619</v>
+      </c>
+      <c r="N55">
+        <v>3217550.873184836</v>
+      </c>
+      <c r="O55">
+        <v>100452.5</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>8364.329867228118</v>
+      </c>
+      <c r="R55">
+        <v>11376.9</v>
+      </c>
+      <c r="S55">
+        <v>6370.652828977819</v>
+      </c>
+      <c r="T55">
+        <v>9</v>
+      </c>
+      <c r="U55">
+        <v>53760</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J56">
+        <v>33783794.6688</v>
+      </c>
+      <c r="K56">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L56">
+        <v>24276083.54244906</v>
+      </c>
+      <c r="M56">
+        <v>13793763.94684971</v>
+      </c>
+      <c r="N56">
+        <v>9507711.126350932</v>
+      </c>
+      <c r="O56">
+        <v>50852.5</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>8993.345892544727</v>
+      </c>
+      <c r="R56">
+        <v>11376.9</v>
+      </c>
+      <c r="S56">
+        <v>5615.833598597887</v>
+      </c>
+      <c r="T56">
+        <v>11</v>
+      </c>
+      <c r="U56">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <v>29</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57">
+        <v>1707765044.129413</v>
+      </c>
+      <c r="J57">
+        <v>33783794.6688</v>
+      </c>
+      <c r="K57">
+        <v>37922999.99999999</v>
+      </c>
+      <c r="L57">
+        <v>28139058.80775074</v>
+      </c>
+      <c r="M57">
+        <v>9930788.681548037</v>
+      </c>
+      <c r="N57">
+        <v>5644735.861049254</v>
+      </c>
+      <c r="O57">
+        <v>78052.5</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>8607.04836601456</v>
+      </c>
+      <c r="R57">
+        <v>11376.9</v>
+      </c>
+      <c r="S57">
+        <v>6079.390630434089</v>
+      </c>
+      <c r="T57">
+        <v>10</v>
+      </c>
+      <c r="U57">
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58">
+        <v>1707765044.159767</v>
+      </c>
+      <c r="J58">
+        <v>66611386.14269999</v>
+      </c>
+      <c r="K58">
+        <v>640441999.9999999</v>
+      </c>
+      <c r="L58">
+        <v>66611386.14269999</v>
+      </c>
+      <c r="M58">
+        <v>573830613.8573</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>50500</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>185471.46138573</v>
+      </c>
+      <c r="R58">
+        <v>192132.5999999999</v>
+      </c>
+      <c r="S58">
+        <v>13322.27722854</v>
+      </c>
+      <c r="T58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59">
+        <v>1707765044.159767</v>
+      </c>
+      <c r="J59">
+        <v>63890861.7123</v>
+      </c>
+      <c r="K59">
+        <v>640441999.9999999</v>
+      </c>
+      <c r="L59">
+        <v>63890861.7123</v>
+      </c>
+      <c r="M59">
+        <v>576551138.2876999</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>48750</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>185743.51382877</v>
+      </c>
+      <c r="R59">
+        <v>192132.5999999999</v>
+      </c>
+      <c r="S59">
+        <v>12778.17234246</v>
+      </c>
+      <c r="T59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60">
+        <v>1707765044.159767</v>
+      </c>
+      <c r="J60">
+        <v>62336276.32349999</v>
+      </c>
+      <c r="K60">
+        <v>640441999.9999999</v>
+      </c>
+      <c r="L60">
+        <v>62336276.32349999</v>
+      </c>
+      <c r="M60">
+        <v>578105723.6764998</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>47750</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>185898.97236765</v>
+      </c>
+      <c r="R60">
+        <v>192132.5999999999</v>
+      </c>
+      <c r="S60">
+        <v>12467.2552647</v>
+      </c>
+      <c r="T60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61">
+        <v>1707765044.159767</v>
+      </c>
+      <c r="J61">
+        <v>72321263.31420001</v>
+      </c>
+      <c r="K61">
+        <v>640441999.9999999</v>
+      </c>
+      <c r="L61">
+        <v>72321263.31420001</v>
+      </c>
+      <c r="M61">
+        <v>568120736.6857998</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>55222.5</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>184900.4736685799</v>
+      </c>
+      <c r="R61">
+        <v>192132.5999999999</v>
+      </c>
+      <c r="S61">
+        <v>14464.25266284</v>
+      </c>
+      <c r="T61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62">
+        <v>1707765044.159767</v>
+      </c>
+      <c r="J62">
+        <v>69335321.8662</v>
+      </c>
+      <c r="K62">
+        <v>640441999.9999999</v>
+      </c>
+      <c r="L62">
+        <v>69335321.8662</v>
+      </c>
+      <c r="M62">
+        <v>571106678.1338</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>53297.5</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>185199.06781338</v>
+      </c>
+      <c r="R62">
+        <v>192132.5999999999</v>
+      </c>
+      <c r="S62">
+        <v>13867.06437324</v>
+      </c>
+      <c r="T62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63">
+        <v>1707765044.159767</v>
+      </c>
+      <c r="J63">
+        <v>67629069.6102</v>
+      </c>
+      <c r="K63">
+        <v>640441999.9999999</v>
+      </c>
+      <c r="L63">
+        <v>67629069.6102</v>
+      </c>
+      <c r="M63">
+        <v>572812930.3898</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>52197.5</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>185369.69303898</v>
+      </c>
+      <c r="R63">
+        <v>192132.5999999999</v>
+      </c>
+      <c r="S63">
+        <v>13525.81392204</v>
+      </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64">
+        <v>1707765044.159767</v>
+      </c>
+      <c r="J64">
         <v>62761165.5492</v>
       </c>
-      <c r="K16">
+      <c r="K64">
         <v>640441999.9999999</v>
       </c>
-      <c r="L16">
+      <c r="L64">
         <v>62761165.5492</v>
       </c>
-      <c r="M16">
+      <c r="M64">
         <v>577680834.4507999</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
         <v>107957.5</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
         <v>185856.48344508</v>
       </c>
-      <c r="S16">
+      <c r="R64">
         <v>192132.5999999999</v>
       </c>
-      <c r="T16">
+      <c r="S64">
         <v>12552.23310984</v>
       </c>
-      <c r="U16">
+      <c r="T64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65">
+        <v>1707765044.159767</v>
+      </c>
+      <c r="J65">
+        <v>60372412.3908</v>
+      </c>
+      <c r="K65">
+        <v>640441999.9999999</v>
+      </c>
+      <c r="L65">
+        <v>60372412.3908</v>
+      </c>
+      <c r="M65">
+        <v>580069587.6092</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>104475</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>186095.35876092</v>
+      </c>
+      <c r="R65">
+        <v>192132.5999999999</v>
+      </c>
+      <c r="S65">
+        <v>12074.48247816</v>
+      </c>
+      <c r="T65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66">
+        <v>1707765044.159767</v>
+      </c>
+      <c r="J66">
+        <v>59007410.586</v>
+      </c>
+      <c r="K66">
+        <v>640441999.9999999</v>
+      </c>
+      <c r="L66">
+        <v>59007410.586</v>
+      </c>
+      <c r="M66">
+        <v>581434589.414</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>102485</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>186231.8589414</v>
+      </c>
+      <c r="R66">
+        <v>192132.5999999999</v>
+      </c>
+      <c r="S66">
+        <v>11801.4821172</v>
+      </c>
+      <c r="T66">
         <v>11</v>
       </c>
     </row>

--- a/download/solution_data.xlsx
+++ b/download/solution_data.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -560,16 +560,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J2" t="n">
         <v>94350278.73459999</v>
@@ -587,7 +587,7 @@
         <v>62886623.56469434</v>
       </c>
       <c r="O2" t="n">
-        <v>60750</v>
+        <v>66825.00000000001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>11323.66091915668</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U2" t="inlineStr"/>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -631,16 +631,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J3" t="n">
         <v>94350278.73459999</v>
@@ -658,7 +658,7 @@
         <v>56427278.73460001</v>
       </c>
       <c r="O3" t="n">
-        <v>95950</v>
+        <v>102025</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>12098.782298768</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U3" t="n">
         <v>36960</v>
@@ -685,7 +685,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -704,16 +704,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J4" t="n">
         <v>94350278.73459999</v>
@@ -731,7 +731,7 @@
         <v>56427278.73460001</v>
       </c>
       <c r="O4" t="n">
-        <v>126350</v>
+        <v>132425</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>12098.782298768</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
         <v>68880</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -777,16 +777,16 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J5" t="n">
         <v>92167187.1381</v>
@@ -804,7 +804,7 @@
         <v>60845276.89551616</v>
       </c>
       <c r="O5" t="n">
-        <v>60750</v>
+        <v>66825.00000000001</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -848,16 +848,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J6" t="n">
         <v>92167187.1381</v>
@@ -875,7 +875,7 @@
         <v>54244187.13810001</v>
       </c>
       <c r="O6" t="n">
-        <v>95950</v>
+        <v>102025</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>11924.134971048</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
         <v>36960</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -921,16 +921,16 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J7" t="n">
         <v>92167187.1381</v>
@@ -948,7 +948,7 @@
         <v>54244187.13810001</v>
       </c>
       <c r="O7" t="n">
-        <v>126350</v>
+        <v>132425</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>11924.134971048</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
         <v>68880</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -994,16 +994,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J8" t="n">
         <v>90059724.5967</v>
@@ -1021,7 +1021,7 @@
         <v>58880366.94587433</v>
       </c>
       <c r="O8" t="n">
-        <v>60750</v>
+        <v>66825</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1065,16 +1065,16 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J9" t="n">
         <v>90059724.5967</v>
@@ -1092,7 +1092,7 @@
         <v>52136724.59670001</v>
       </c>
       <c r="O9" t="n">
-        <v>97550</v>
+        <v>103625</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>11755.537967736</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
         <v>38640</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1138,16 +1138,16 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J10" t="n">
         <v>90059724.5967</v>
@@ -1165,7 +1165,7 @@
         <v>52136724.59670001</v>
       </c>
       <c r="O10" t="n">
-        <v>126350</v>
+        <v>132425</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>11755.537967736</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
         <v>68880</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1211,16 +1211,16 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J11" t="n">
         <v>92985946.02900001</v>
@@ -1238,7 +1238,7 @@
         <v>61589486.74079435</v>
       </c>
       <c r="O11" t="n">
-        <v>59950</v>
+        <v>65945.00000000001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>11206.45079690468</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1282,16 +1282,16 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J12" t="n">
         <v>92985946.02900001</v>
@@ -1309,7 +1309,7 @@
         <v>55062946.02900001</v>
       </c>
       <c r="O12" t="n">
-        <v>96750</v>
+        <v>102745</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>11989.63568232</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
         <v>38640</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1355,16 +1355,16 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J13" t="n">
         <v>92985946.02900001</v>
@@ -1382,7 +1382,7 @@
         <v>55062946.02900001</v>
       </c>
       <c r="O13" t="n">
-        <v>127150</v>
+        <v>133145</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>11989.63568232</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U13" t="n">
         <v>70560</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1428,16 +1428,16 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J14" t="n">
         <v>93672815.9598</v>
@@ -1455,7 +1455,7 @@
         <v>62259851.36729436</v>
       </c>
       <c r="O14" t="n">
-        <v>64047.5</v>
+        <v>70452.25000000001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>11263.38102788468</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U14" t="inlineStr"/>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1499,16 +1499,16 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J15" t="n">
         <v>93672815.9598</v>
@@ -1526,7 +1526,7 @@
         <v>55749815.95980002</v>
       </c>
       <c r="O15" t="n">
-        <v>100847.5</v>
+        <v>107252.25</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>12044.585276784</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U15" t="n">
         <v>38640</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1572,16 +1572,16 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J16" t="n">
         <v>93672815.9598</v>
@@ -1599,7 +1599,7 @@
         <v>55749815.95980002</v>
       </c>
       <c r="O16" t="n">
-        <v>129647.5</v>
+        <v>136052.25</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>12044.585276784</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U16" t="n">
         <v>68880</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J17" t="n">
         <v>91433515.014</v>
@@ -1672,7 +1672,7 @@
         <v>60163404.25547434</v>
       </c>
       <c r="O17" t="n">
-        <v>61050</v>
+        <v>67155.00000000001</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1716,16 +1716,16 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J18" t="n">
         <v>91433515.014</v>
@@ -1743,7 +1743,7 @@
         <v>53510515.01400001</v>
       </c>
       <c r="O18" t="n">
-        <v>126650</v>
+        <v>132755</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>11865.44120112</v>
       </c>
       <c r="T18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
         <v>68880</v>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1789,16 +1789,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J19" t="n">
         <v>91433515.014</v>
@@ -1816,7 +1816,7 @@
         <v>53510515.01400001</v>
       </c>
       <c r="O19" t="n">
-        <v>96250</v>
+        <v>102355</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>11865.44120112</v>
       </c>
       <c r="T19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
         <v>36960</v>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1862,16 +1862,16 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J20" t="n">
         <v>94391225.42399999</v>
@@ -1889,7 +1889,7 @@
         <v>62929607.80439435</v>
       </c>
       <c r="O20" t="n">
-        <v>137807.5</v>
+        <v>151588.25</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>11326.69214827268</v>
       </c>
       <c r="T20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U20" t="inlineStr"/>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1933,16 +1933,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J21" t="n">
         <v>94391225.42399999</v>
@@ -1960,7 +1960,7 @@
         <v>56468225.42400002</v>
       </c>
       <c r="O21" t="n">
-        <v>203407.5</v>
+        <v>217188.25</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>12102.05803392</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U21" t="n">
         <v>68880</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2006,16 +2006,16 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J22" t="n">
         <v>94391225.42399999</v>
@@ -2033,7 +2033,7 @@
         <v>56468225.42400002</v>
       </c>
       <c r="O22" t="n">
-        <v>173007.5</v>
+        <v>186788.25</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>12102.05803392</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U22" t="n">
         <v>36960</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -2079,16 +2079,16 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J23" t="n">
         <v>91420034.22</v>
@@ -2106,7 +2106,7 @@
         <v>60145776.48557433</v>
       </c>
       <c r="O23" t="n">
-        <v>137807.5</v>
+        <v>151588.25</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>11066.51366573108</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U23" t="inlineStr"/>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2150,16 +2150,16 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J24" t="n">
         <v>91420034.22</v>
@@ -2177,7 +2177,7 @@
         <v>53497034.22000001</v>
       </c>
       <c r="O24" t="n">
-        <v>203407.5</v>
+        <v>217188.25</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>11864.3627376</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U24" t="n">
         <v>68880</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -2223,16 +2223,16 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J25" t="n">
         <v>91420034.22</v>
@@ -2250,7 +2250,7 @@
         <v>53497034.22000001</v>
       </c>
       <c r="O25" t="n">
-        <v>173007.5</v>
+        <v>186788.25</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>11864.3627376</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U25" t="n">
         <v>36960</v>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -2296,16 +2296,16 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J26" t="n">
         <v>89363973.204</v>
@@ -2323,7 +2323,7 @@
         <v>58232748.17472249</v>
       </c>
       <c r="O26" t="n">
-        <v>137807.5</v>
+        <v>151588.25</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>10884.8648598333</v>
       </c>
       <c r="T26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U26" t="inlineStr"/>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -2367,16 +2367,16 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J27" t="n">
         <v>89363973.204</v>
@@ -2394,7 +2394,7 @@
         <v>51440973.20400001</v>
       </c>
       <c r="O27" t="n">
-        <v>173007.5</v>
+        <v>186788.25</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>11699.87785632</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U27" t="n">
         <v>36960</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cfa58ce17d1042398fa25f207e6cf648</t>
+          <t>3307eff9e9b54a54a416d2e1d9699710</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -2440,16 +2440,16 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9b53328ca13f42c9b2bb50665c3d7a66</t>
+          <t>d56e1282a09b4d88921fd361da348e90</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1707834873.681116</v>
+        <v>1710367031.035788</v>
       </c>
       <c r="J28" t="n">
         <v>89363973.204</v>
@@ -2467,7 +2467,7 @@
         <v>51440973.20400001</v>
       </c>
       <c r="O28" t="n">
-        <v>203407.5</v>
+        <v>217188.25</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>11699.87785632</v>
       </c>
       <c r="T28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U28" t="n">
         <v>68880</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -2513,16 +2513,16 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J29" t="n">
         <v>47026208.0112</v>
@@ -2540,7 +2540,7 @@
         <v>19878166.04734841</v>
       </c>
       <c r="O29" t="n">
-        <v>30250</v>
+        <v>33275</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>7019.861676558192</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U29" t="inlineStr"/>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2584,16 +2584,16 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J30" t="n">
         <v>47026208.0112</v>
@@ -2611,7 +2611,7 @@
         <v>9555286.06900491</v>
       </c>
       <c r="O30" t="n">
-        <v>89450</v>
+        <v>92475</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>8258.607273959411</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U30" t="n">
         <v>62160</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -2657,16 +2657,16 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J31" t="n">
         <v>47026208.0112</v>
@@ -2684,7 +2684,7 @@
         <v>19532086.04734841</v>
       </c>
       <c r="O31" t="n">
-        <v>31850</v>
+        <v>34875</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>7061.391276558192</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U31" t="n">
         <v>1680</v>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2730,16 +2730,16 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J32" t="n">
         <v>47026208.0112</v>
@@ -2757,7 +2757,7 @@
         <v>15166543.03779604</v>
       </c>
       <c r="O32" t="n">
-        <v>54250</v>
+        <v>57275</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -2803,16 +2803,16 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J33" t="n">
         <v>47026208.0112</v>
@@ -2830,7 +2830,7 @@
         <v>19878166.04734841</v>
       </c>
       <c r="O33" t="n">
-        <v>30250</v>
+        <v>33275</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>7019.861676558192</v>
       </c>
       <c r="T33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U33" t="inlineStr"/>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2874,16 +2874,16 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J34" t="n">
         <v>47026208.0112</v>
@@ -2901,7 +2901,7 @@
         <v>9555286.06900491</v>
       </c>
       <c r="O34" t="n">
-        <v>89450</v>
+        <v>92475</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>8258.607273959411</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U34" t="n">
         <v>62160</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -2947,16 +2947,16 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J35" t="n">
         <v>47026208.0112</v>
@@ -2974,7 +2974,7 @@
         <v>19532086.04734841</v>
       </c>
       <c r="O35" t="n">
-        <v>31850</v>
+        <v>34875</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>7061.391276558192</v>
       </c>
       <c r="T35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U35" t="n">
         <v>1680</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -3020,16 +3020,16 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J36" t="n">
         <v>47026208.0112</v>
@@ -3047,7 +3047,7 @@
         <v>15166543.03779604</v>
       </c>
       <c r="O36" t="n">
-        <v>54250</v>
+        <v>57275</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -3093,16 +3093,16 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J37" t="n">
         <v>35755463.94239999</v>
@@ -3120,7 +3120,7 @@
         <v>11157634.4024192</v>
       </c>
       <c r="O37" t="n">
-        <v>23000</v>
+        <v>25300</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -3164,16 +3164,16 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J38" t="n">
         <v>35755463.94239999</v>
@@ -3191,7 +3191,7 @@
         <v>7001887.09875402</v>
       </c>
       <c r="O38" t="n">
-        <v>50200</v>
+        <v>52500</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>6310.866336629519</v>
       </c>
       <c r="T38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U38" t="n">
         <v>28560</v>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -3237,16 +3237,16 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J39" t="n">
         <v>35755463.94239999</v>
@@ -3264,7 +3264,7 @@
         <v>4155564.183175326</v>
       </c>
       <c r="O39" t="n">
-        <v>74200</v>
+        <v>76500</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -3279,7 +3279,7 @@
         <v>6652.425086498961</v>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U39" t="n">
         <v>53760</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -3310,16 +3310,16 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J40" t="n">
         <v>50334441.552</v>
@@ -3337,7 +3337,7 @@
         <v>22638362.37147185</v>
       </c>
       <c r="O40" t="n">
-        <v>32450</v>
+        <v>35695</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>7350.284825823378</v>
       </c>
       <c r="T40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U40" t="inlineStr"/>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -3381,16 +3381,16 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J41" t="n">
         <v>50334441.552</v>
@@ -3408,7 +3408,7 @@
         <v>17389199.30393526</v>
       </c>
       <c r="O41" t="n">
-        <v>58050</v>
+        <v>61295</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -3454,16 +3454,16 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J42" t="n">
         <v>50334441.552</v>
@@ -3481,7 +3481,7 @@
         <v>12411441.55200002</v>
       </c>
       <c r="O42" t="n">
-        <v>99650</v>
+        <v>102895</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -3527,16 +3527,16 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J43" t="n">
         <v>50334441.552</v>
@@ -3554,7 +3554,7 @@
         <v>22638362.37147185</v>
       </c>
       <c r="O43" t="n">
-        <v>32450</v>
+        <v>35695</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>7350.284825823378</v>
       </c>
       <c r="T43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U43" t="inlineStr"/>
     </row>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -3598,16 +3598,16 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J44" t="n">
         <v>50334441.552</v>
@@ -3625,7 +3625,7 @@
         <v>17389199.30393526</v>
       </c>
       <c r="O44" t="n">
-        <v>58050</v>
+        <v>61295</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -3671,16 +3671,16 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J45" t="n">
         <v>50334441.552</v>
@@ -3698,7 +3698,7 @@
         <v>12411441.55200002</v>
       </c>
       <c r="O45" t="n">
-        <v>99650</v>
+        <v>102895</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -3744,16 +3744,16 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J46" t="n">
         <v>38390675.76</v>
@@ -3771,7 +3771,7 @@
         <v>13060448.43608049</v>
       </c>
       <c r="O46" t="n">
-        <v>24750</v>
+        <v>27225</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -3815,16 +3815,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J47" t="n">
         <v>38390675.76</v>
@@ -3842,7 +3842,7 @@
         <v>8630268.436620906</v>
       </c>
       <c r="O47" t="n">
-        <v>51950</v>
+        <v>54425</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -3888,16 +3888,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J48" t="n">
         <v>38390675.76</v>
@@ -3915,7 +3915,7 @@
         <v>5339610.177467801</v>
       </c>
       <c r="O48" t="n">
-        <v>77550</v>
+        <v>80025</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>7037.381930703863</v>
       </c>
       <c r="T48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U48" t="n">
         <v>55440</v>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -3961,16 +3961,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J49" t="n">
         <v>44362558.656</v>
@@ -3988,7 +3988,7 @@
         <v>17702399.7391113</v>
       </c>
       <c r="O49" t="n">
-        <v>64675</v>
+        <v>71142.5</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>6748.223762506645</v>
       </c>
       <c r="T49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U49" t="inlineStr"/>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -4032,16 +4032,16 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J50" t="n">
         <v>44362558.656</v>
@@ -4059,7 +4059,7 @@
         <v>12960547.98405455</v>
       </c>
       <c r="O50" t="n">
-        <v>90275</v>
+        <v>96742.5</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>7317.245973113453</v>
       </c>
       <c r="T50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U50" t="n">
         <v>26880</v>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -4105,16 +4105,16 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J51" t="n">
         <v>44362558.656</v>
@@ -4132,7 +4132,7 @@
         <v>8568058.581820808</v>
       </c>
       <c r="O51" t="n">
-        <v>119075</v>
+        <v>125542.5</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>7844.344701381503</v>
       </c>
       <c r="T51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U51" t="n">
         <v>57120</v>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -4178,16 +4178,16 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J52" t="n">
         <v>44362558.656</v>
@@ -4205,7 +4205,7 @@
         <v>17702399.7391113</v>
       </c>
       <c r="O52" t="n">
-        <v>64675</v>
+        <v>71142.5</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>6748.223762506645</v>
       </c>
       <c r="T52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U52" t="inlineStr"/>
     </row>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -4249,16 +4249,16 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J53" t="n">
         <v>44362558.656</v>
@@ -4276,7 +4276,7 @@
         <v>12960547.98405455</v>
       </c>
       <c r="O53" t="n">
-        <v>90275</v>
+        <v>96742.5</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>7317.245973113453</v>
       </c>
       <c r="T53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U53" t="n">
         <v>26880</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -4322,16 +4322,16 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J54" t="n">
         <v>44362558.656</v>
@@ -4349,7 +4349,7 @@
         <v>8568058.581820808</v>
       </c>
       <c r="O54" t="n">
-        <v>119075</v>
+        <v>125542.5</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -4364,7 +4364,7 @@
         <v>7844.344701381503</v>
       </c>
       <c r="T54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U54" t="n">
         <v>57120</v>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -4395,16 +4395,16 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J55" t="n">
         <v>33783794.6688</v>
@@ -4422,7 +4422,7 @@
         <v>9771471.126350932</v>
       </c>
       <c r="O55" t="n">
-        <v>49252.5</v>
+        <v>54177.75</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>5584.182398597887</v>
       </c>
       <c r="T55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U55" t="inlineStr"/>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -4466,16 +4466,16 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J56" t="n">
         <v>33783794.6688</v>
@@ -4493,7 +4493,7 @@
         <v>3217550.873184836</v>
       </c>
       <c r="O56" t="n">
-        <v>100452.5</v>
+        <v>105377.75</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>6370.652828977819</v>
       </c>
       <c r="T56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U56" t="n">
         <v>53760</v>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -4539,16 +4539,16 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J57" t="n">
         <v>33783794.6688</v>
@@ -4566,7 +4566,7 @@
         <v>9507711.126350932</v>
       </c>
       <c r="O57" t="n">
-        <v>50852.5</v>
+        <v>55777.75</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -4581,7 +4581,7 @@
         <v>5615.833598597887</v>
       </c>
       <c r="T57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U57" t="n">
         <v>1680</v>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9289c43da62645c4bcb6794fc98321a3</t>
+          <t>046d2cbb8d27495899b24b28e06b49c6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -4612,16 +4612,16 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>28001c923c7042bcb95fbb2415d90f08</t>
+          <t>bf1a99794fd24ec59c39a5fabaf1de5a</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1707834873.733464</v>
+        <v>1710367031.051412</v>
       </c>
       <c r="J58" t="n">
         <v>33783794.6688</v>
@@ -4639,7 +4639,7 @@
         <v>5644735.861049254</v>
       </c>
       <c r="O58" t="n">
-        <v>78052.5</v>
+        <v>82977.75</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -4654,7 +4654,7 @@
         <v>6079.390630434089</v>
       </c>
       <c r="T58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U58" t="n">
         <v>30240</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>f11d4702574b47d497d8f72e5078fa9e</t>
+          <t>6166b10aac01467e96ee15faf03dc7f4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -4685,16 +4685,16 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0f462440cda2440d8356238daa144a59</t>
+          <t>06b37189f2d34afd8ae94cbd2edb3487</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1707834873.786994</v>
+        <v>1710367031.067048</v>
       </c>
       <c r="J59" t="n">
         <v>61170337.28189999</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>47000</v>
+        <v>51700</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>f11d4702574b47d497d8f72e5078fa9e</t>
+          <t>6166b10aac01467e96ee15faf03dc7f4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -4756,16 +4756,16 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0f462440cda2440d8356238daa144a59</t>
+          <t>06b37189f2d34afd8ae94cbd2edb3487</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1707834873.786994</v>
+        <v>1710367031.067048</v>
       </c>
       <c r="J60" t="n">
         <v>61170337.28189999</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>47000</v>
+        <v>51700</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>f11d4702574b47d497d8f72e5078fa9e</t>
+          <t>6166b10aac01467e96ee15faf03dc7f4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -4827,16 +4827,16 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0f462440cda2440d8356238daa144a59</t>
+          <t>06b37189f2d34afd8ae94cbd2edb3487</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1707834873.786994</v>
+        <v>1710367031.067048</v>
       </c>
       <c r="J61" t="n">
         <v>61170337.28189999</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>47000</v>
+        <v>51700</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>f11d4702574b47d497d8f72e5078fa9e</t>
+          <t>6166b10aac01467e96ee15faf03dc7f4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -4898,16 +4898,16 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0f462440cda2440d8356238daa144a59</t>
+          <t>06b37189f2d34afd8ae94cbd2edb3487</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1707834873.786994</v>
+        <v>1710367031.067048</v>
       </c>
       <c r="J62" t="n">
         <v>66008129.967</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>50875</v>
+        <v>55962.5</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>f11d4702574b47d497d8f72e5078fa9e</t>
+          <t>6166b10aac01467e96ee15faf03dc7f4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -4969,16 +4969,16 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0f462440cda2440d8356238daa144a59</t>
+          <t>06b37189f2d34afd8ae94cbd2edb3487</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1707834873.786994</v>
+        <v>1710367031.067048</v>
       </c>
       <c r="J63" t="n">
         <v>66008129.967</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>50875</v>
+        <v>55962.5</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>f11d4702574b47d497d8f72e5078fa9e</t>
+          <t>6166b10aac01467e96ee15faf03dc7f4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -5040,16 +5040,16 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0f462440cda2440d8356238daa144a59</t>
+          <t>06b37189f2d34afd8ae94cbd2edb3487</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1707834873.786994</v>
+        <v>1710367031.067048</v>
       </c>
       <c r="J64" t="n">
         <v>66008129.967</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>50875</v>
+        <v>55962.5</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>f11d4702574b47d497d8f72e5078fa9e</t>
+          <t>6166b10aac01467e96ee15faf03dc7f4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -5111,16 +5111,16 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0f462440cda2440d8356238daa144a59</t>
+          <t>06b37189f2d34afd8ae94cbd2edb3487</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1707834873.786994</v>
+        <v>1710367031.067048</v>
       </c>
       <c r="J65" t="n">
         <v>57983659.2324</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>100992.5</v>
+        <v>111091.75</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>11596.73184648</v>
       </c>
       <c r="T65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U65" t="inlineStr"/>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>f11d4702574b47d497d8f72e5078fa9e</t>
+          <t>6166b10aac01467e96ee15faf03dc7f4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -5182,16 +5182,16 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0f462440cda2440d8356238daa144a59</t>
+          <t>06b37189f2d34afd8ae94cbd2edb3487</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1707834873.786994</v>
+        <v>1710367031.067048</v>
       </c>
       <c r="J66" t="n">
         <v>57983659.2324</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>100992.5</v>
+        <v>111091.75</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>11596.73184648</v>
       </c>
       <c r="T66" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U66" t="inlineStr"/>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>f11d4702574b47d497d8f72e5078fa9e</t>
+          <t>6166b10aac01467e96ee15faf03dc7f4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -5253,16 +5253,16 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
+          <t>{'city_selling_price': 0.2, 'grid_selling_price': 0.3, 'grid_buying_price': 0.08, 'autonomy_period_days': 0, 'installation_coef': 1.0, 'miscellaneous_coef': 0.5, 'discount_rate': 0.03, 'discount_horison': 5, 'optimal_angle': 0, 'optimal_both': 0, 'roof_installation_coef': 1.1, 'max_investments': 250000, 'max_kwattpeak': 100, 'max_payback_perod': 30, 'min_payback_perod': 5, 'max_equipment_count': 300, 'min_equipment_count': 10, 'shown_solutions_limit': 3, 'battery_capacity_uplimit': 100, 'use_ray': 0, 'ray_rate': 1.0, 'num_cpus': 4}</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0f462440cda2440d8356238daa144a59</t>
+          <t>06b37189f2d34afd8ae94cbd2edb3487</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1707834873.786994</v>
+        <v>1710367031.067048</v>
       </c>
       <c r="J67" t="n">
         <v>57983659.2324</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>100992.5</v>
+        <v>111091.75</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5295,7 +5295,7 @@
         <v>11596.73184648</v>
       </c>
       <c r="T67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U67" t="inlineStr"/>
     </row>
